--- a/programing/out.xlsx
+++ b/programing/out.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coldshutdown_daily_progress_report\programing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B14F9D-EC3F-4BD1-B9E9-C6E85EBB0E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="382">
   <si>
     <t>ID</t>
   </si>
@@ -1166,19 +1160,16 @@
   </si>
   <si>
     <t>مهندسی معکوس</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,141 +1232,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{453AE072-56F8-4695-9D22-586337F3D6E2}" name="Table1" displayName="Table1" ref="A1:AO132" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:AO132" xr:uid="{453AE072-56F8-4695-9D22-586337F3D6E2}"/>
-  <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{A29BFC05-24E5-4843-BC83-7F892162E26F}" name="Column1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{96FD88FA-1118-41D2-886C-D7D755383E70}" name="ID"/>
-    <tableColumn id="3" xr3:uid="{0CAFA822-9C27-45A8-B4D8-F56DFAA47F31}" name="WBS"/>
-    <tableColumn id="4" xr3:uid="{BCFADE22-35F6-4EEB-957B-6935DA560834}" name="WRNO"/>
-    <tableColumn id="5" xr3:uid="{03942630-BE5B-43C5-86C8-243F5C077913}" name="Name"/>
-    <tableColumn id="6" xr3:uid="{91E3B028-A234-4993-ADFA-9BD79AB9179C}" name="MAN__HOUR"/>
-    <tableColumn id="7" xr3:uid="{20A9B810-0BC4-43F2-900C-978D3E6E9E6A}" name="Start_Date" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{6C17193E-DC19-4AF5-B26A-2FE5C03406AD}" name="Finish_Date" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{4794DBBD-3767-420A-B06F-EAAF4573C015}" name="%man_hours"/>
-    <tableColumn id="10" xr3:uid="{C45DCE42-BADC-42D0-92D8-C76794988239}" name="duration" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{C51941A9-16B6-4857-BFE7-F65DE85E03CF}" name="day_weigth"/>
-    <tableColumn id="12" xr3:uid="{6A6DFE22-54FF-4BA9-BBC6-874E574511A3}" name="2022-06-22"/>
-    <tableColumn id="13" xr3:uid="{8FBFD324-AEAC-4B3C-B91D-DE3535F924ED}" name="2022-06-23"/>
-    <tableColumn id="14" xr3:uid="{EEB6EB39-C8BC-4FB2-883F-74AFBBEFDEE4}" name="2022-06-24"/>
-    <tableColumn id="15" xr3:uid="{FDEB26B6-EE77-4E8C-B517-222F9D23343D}" name="2022-06-25"/>
-    <tableColumn id="16" xr3:uid="{8E6867A7-399E-4B86-8E6B-81EC6206BB07}" name="2022-06-26"/>
-    <tableColumn id="17" xr3:uid="{82C42BAB-CC95-4DE7-A5B4-29821436BED3}" name="2022-06-27"/>
-    <tableColumn id="18" xr3:uid="{2FCA1685-F16A-4063-91BC-99D8245C97CD}" name="2022-06-28"/>
-    <tableColumn id="19" xr3:uid="{02EF56EB-4F0E-4ECC-9E86-0E4C08AAAAED}" name="2022-06-29"/>
-    <tableColumn id="20" xr3:uid="{D7826C34-FC7C-41CE-8EB2-7EB592712984}" name="2022-06-30"/>
-    <tableColumn id="21" xr3:uid="{A69F8738-69EC-412D-8716-282C7BCFB4F4}" name="2022-07-01"/>
-    <tableColumn id="22" xr3:uid="{0369A30E-DCE5-4122-989C-A3BB0AA37CE8}" name="2022-07-02"/>
-    <tableColumn id="23" xr3:uid="{5B54E7AE-4809-47FD-816C-667CC3A8EEBE}" name="2022-07-03"/>
-    <tableColumn id="24" xr3:uid="{FA6B7B69-16F3-4B44-B965-ED6D8036F2E3}" name="2022-07-04"/>
-    <tableColumn id="25" xr3:uid="{E6C84369-FBDF-48AF-8CC2-A2CC903DC56D}" name="2022-07-05"/>
-    <tableColumn id="26" xr3:uid="{54CB7A17-79C8-4F65-84A7-0BD2CA7FEF48}" name="2022-07-06"/>
-    <tableColumn id="27" xr3:uid="{33C92854-C6F2-42A7-8838-872AE51ACD6D}" name="2022-07-07"/>
-    <tableColumn id="28" xr3:uid="{F9764768-544A-4AB2-A70E-592E4E1737FB}" name="2022-07-08"/>
-    <tableColumn id="29" xr3:uid="{5A16CB3E-3E4C-45B0-B476-BA13B4E1D6BB}" name="2022-07-09"/>
-    <tableColumn id="30" xr3:uid="{77B56B2E-0277-4168-84CB-FBFD5BCBF43B}" name="2022-07-10"/>
-    <tableColumn id="31" xr3:uid="{3DCD60E0-907E-45BC-AC4E-EDE9D561983D}" name="2022-07-11"/>
-    <tableColumn id="32" xr3:uid="{BC126428-8299-4C82-8BD6-019D4F90CCBB}" name="2022-07-12"/>
-    <tableColumn id="33" xr3:uid="{525D5BEA-0590-41E7-931F-F81673E46AEB}" name="2022-07-13"/>
-    <tableColumn id="34" xr3:uid="{4CD62821-314E-4D0D-BAEF-4E465683197A}" name="2022-07-14"/>
-    <tableColumn id="35" xr3:uid="{1E276650-2872-4986-83DD-8BE05AC7C04B}" name="2022-07-15"/>
-    <tableColumn id="36" xr3:uid="{4693EAC1-8311-4456-875E-12AFB31F4EF5}" name="2022-07-16"/>
-    <tableColumn id="37" xr3:uid="{7D401387-6B55-4EC3-B943-80931F65DF5F}" name="2022-07-17"/>
-    <tableColumn id="38" xr3:uid="{04BC0AA4-7168-45A7-B8E9-D738FA98B5BD}" name="2022-07-18"/>
-    <tableColumn id="39" xr3:uid="{D57AAF9B-0AED-4B5F-928F-8D9FE82DA6B8}" name="2022-07-19"/>
-    <tableColumn id="40" xr3:uid="{DB551CC3-E436-40B8-BAE9-3C3E1EF6736F}" name="2022-07-20"/>
-    <tableColumn id="41" xr3:uid="{C4445FA0-FA79-49B2-9C3A-1A657F9B7B58}" name="2022-07-21"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1421,7 +1280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1453,27 +1312,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1505,24 +1346,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1698,31 +1521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AO132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="41" width="12.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>382</v>
-      </c>
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1650,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1870,13 +1676,13 @@
         <v>44736</v>
       </c>
       <c r="I2">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1885,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1969,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1995,13 +1801,13 @@
         <v>44736</v>
       </c>
       <c r="I3">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2010,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2094,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2120,16 +1926,16 @@
         <v>44734</v>
       </c>
       <c r="I4">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="L4">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -2219,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2245,13 +2051,13 @@
         <v>44737</v>
       </c>
       <c r="I5">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2263,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2344,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2370,13 +2176,13 @@
         <v>44737</v>
       </c>
       <c r="I6">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2388,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2469,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2594,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2626,7 +2432,7 @@
         <v>2</v>
       </c>
       <c r="K8">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2668,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="Z8">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -2719,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2745,13 +2551,13 @@
         <v>44748</v>
       </c>
       <c r="I9">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="J9" s="3">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>9.3333333333333341E-3</v>
+        <v>0.009333333333333334</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2790,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>9.3333333333333341E-3</v>
+        <v>0.009333333333333334</v>
       </c>
       <c r="Y9">
-        <v>9.3333333333333341E-3</v>
+        <v>0.009333333333333334</v>
       </c>
       <c r="Z9">
-        <v>9.3333333333333341E-3</v>
+        <v>0.009333333333333334</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -2844,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2876,7 +2682,7 @@
         <v>2</v>
       </c>
       <c r="K10">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2963,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="AO10">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3094,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3120,7 +2926,7 @@
         <v>44761</v>
       </c>
       <c r="I12">
-        <v>4.5149999999999997</v>
+        <v>4.515</v>
       </c>
       <c r="J12" s="3">
         <v>28</v>
@@ -3219,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3344,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3370,19 +3176,19 @@
         <v>44735</v>
       </c>
       <c r="I14">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3469,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3495,19 +3301,19 @@
         <v>44735</v>
       </c>
       <c r="I15">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3594,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3620,19 +3426,19 @@
         <v>44735</v>
       </c>
       <c r="I16">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -3719,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3745,13 +3551,13 @@
         <v>44743</v>
       </c>
       <c r="I17">
-        <v>0.50800000000000001</v>
+        <v>0.508</v>
       </c>
       <c r="J17" s="3">
         <v>8</v>
       </c>
       <c r="K17">
-        <v>6.3500000000000001E-2</v>
+        <v>0.0635</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3760,28 +3566,28 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>6.3500000000000001E-2</v>
+        <v>0.0635</v>
       </c>
       <c r="O17">
-        <v>6.3500000000000001E-2</v>
+        <v>0.0635</v>
       </c>
       <c r="P17">
-        <v>6.3500000000000001E-2</v>
+        <v>0.0635</v>
       </c>
       <c r="Q17">
-        <v>6.3500000000000001E-2</v>
+        <v>0.0635</v>
       </c>
       <c r="R17">
-        <v>6.3500000000000001E-2</v>
+        <v>0.0635</v>
       </c>
       <c r="S17">
-        <v>6.3500000000000001E-2</v>
+        <v>0.0635</v>
       </c>
       <c r="T17">
-        <v>6.3500000000000001E-2</v>
+        <v>0.0635</v>
       </c>
       <c r="U17">
-        <v>6.3500000000000001E-2</v>
+        <v>0.0635</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -3844,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3870,13 +3676,13 @@
         <v>44737</v>
       </c>
       <c r="I18">
-        <v>0.90300000000000002</v>
+        <v>0.903</v>
       </c>
       <c r="J18" s="3">
         <v>2</v>
       </c>
       <c r="K18">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3885,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="O18">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3969,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3995,13 +3801,13 @@
         <v>44741</v>
       </c>
       <c r="I19">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="J19" s="3">
         <v>6</v>
       </c>
       <c r="K19">
-        <v>4.5166666666666667E-2</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4010,22 +3816,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4.5166666666666667E-2</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="O19">
-        <v>4.5166666666666667E-2</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="P19">
-        <v>4.5166666666666667E-2</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="Q19">
-        <v>4.5166666666666667E-2</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="R19">
-        <v>4.5166666666666667E-2</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="S19">
-        <v>4.5166666666666667E-2</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -4094,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4126,7 +3932,7 @@
         <v>8</v>
       </c>
       <c r="K20">
-        <v>0.15049999999999999</v>
+        <v>0.1505</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -4138,28 +3944,28 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.15049999999999999</v>
+        <v>0.1505</v>
       </c>
       <c r="P20">
-        <v>0.15049999999999999</v>
+        <v>0.1505</v>
       </c>
       <c r="Q20">
-        <v>0.15049999999999999</v>
+        <v>0.1505</v>
       </c>
       <c r="R20">
-        <v>0.15049999999999999</v>
+        <v>0.1505</v>
       </c>
       <c r="S20">
-        <v>0.15049999999999999</v>
+        <v>0.1505</v>
       </c>
       <c r="T20">
-        <v>0.15049999999999999</v>
+        <v>0.1505</v>
       </c>
       <c r="U20">
-        <v>0.15049999999999999</v>
+        <v>0.1505</v>
       </c>
       <c r="V20">
-        <v>0.15049999999999999</v>
+        <v>0.1505</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -4219,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4344,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4370,13 +4176,13 @@
         <v>44738</v>
       </c>
       <c r="I22">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -4391,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -4469,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4594,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4620,13 +4426,13 @@
         <v>44739</v>
       </c>
       <c r="I24">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -4644,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -4719,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4745,13 +4551,13 @@
         <v>44745</v>
       </c>
       <c r="I25">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="J25" s="3">
         <v>6</v>
       </c>
       <c r="K25">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -4772,22 +4578,22 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="S25">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="T25">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="U25">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="V25">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="W25">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -4844,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4876,7 +4682,7 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4900,34 +4706,34 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="T26">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="U26">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="V26">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="W26">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="X26">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="Y26">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="Z26">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="AA26">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="AB26">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -4969,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5001,7 +4807,7 @@
         <v>6</v>
       </c>
       <c r="K27">
-        <v>7.8333333333333324E-2</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -5028,22 +4834,22 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7.8333333333333324E-2</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="U27">
-        <v>7.8333333333333324E-2</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="V27">
-        <v>7.8333333333333324E-2</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="W27">
-        <v>7.8333333333333324E-2</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="X27">
-        <v>7.8333333333333324E-2</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="Y27">
-        <v>7.8333333333333324E-2</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -5094,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5120,13 +4926,13 @@
         <v>44748</v>
       </c>
       <c r="I28">
-        <v>0.22600000000000001</v>
+        <v>0.226</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0.22600000000000001</v>
+        <v>0.226</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -5171,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.22600000000000001</v>
+        <v>0.226</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -5219,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5344,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5370,13 +5176,13 @@
         <v>44749</v>
       </c>
       <c r="I30">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
       </c>
       <c r="K30">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -5424,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -5469,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5594,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5620,13 +5426,13 @@
         <v>44749</v>
       </c>
       <c r="I32">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
       </c>
       <c r="K32">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -5674,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -5719,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5745,13 +5551,13 @@
         <v>44750</v>
       </c>
       <c r="I33">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -5802,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>1.0999999999999999E-2</v>
+        <v>0.011</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -5844,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5870,13 +5676,13 @@
         <v>44750</v>
       </c>
       <c r="I34">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5927,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -5969,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5995,13 +5801,13 @@
         <v>44750</v>
       </c>
       <c r="I35">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -6052,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -6094,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6219,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6251,7 +6057,7 @@
         <v>4</v>
       </c>
       <c r="K37">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -6305,16 +6111,16 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AD37">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AE37">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AF37">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -6344,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6370,13 +6176,13 @@
         <v>44756</v>
       </c>
       <c r="I38">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="J38" s="3">
         <v>6</v>
       </c>
       <c r="K38">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -6430,22 +6236,22 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AD38">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AE38">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AF38">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AG38">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AH38">
-        <v>7.5166666666666673E-2</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AI38">
         <v>0</v>
@@ -6469,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6495,13 +6301,13 @@
         <v>44760</v>
       </c>
       <c r="I39">
-        <v>0.60199999999999998</v>
+        <v>0.602</v>
       </c>
       <c r="J39" s="3">
         <v>3</v>
       </c>
       <c r="K39">
-        <v>0.20066666666666669</v>
+        <v>0.2006666666666667</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -6576,13 +6382,13 @@
         <v>0</v>
       </c>
       <c r="AJ39">
-        <v>0.20066666666666669</v>
+        <v>0.2006666666666667</v>
       </c>
       <c r="AK39">
-        <v>0.20066666666666669</v>
+        <v>0.2006666666666667</v>
       </c>
       <c r="AL39">
-        <v>0.20066666666666669</v>
+        <v>0.2006666666666667</v>
       </c>
       <c r="AM39">
         <v>0</v>
@@ -6594,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6620,13 +6426,13 @@
         <v>44759</v>
       </c>
       <c r="I40">
-        <v>0.45100000000000001</v>
+        <v>0.451</v>
       </c>
       <c r="J40" s="3">
         <v>2</v>
       </c>
       <c r="K40">
-        <v>0.22550000000000001</v>
+        <v>0.2255</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -6701,10 +6507,10 @@
         <v>0</v>
       </c>
       <c r="AJ40">
-        <v>0.22550000000000001</v>
+        <v>0.2255</v>
       </c>
       <c r="AK40">
-        <v>0.22550000000000001</v>
+        <v>0.2255</v>
       </c>
       <c r="AL40">
         <v>0</v>
@@ -6719,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6745,13 +6551,13 @@
         <v>44760</v>
       </c>
       <c r="I41">
-        <v>0.90300000000000002</v>
+        <v>0.903</v>
       </c>
       <c r="J41" s="3">
         <v>2</v>
       </c>
       <c r="K41">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -6829,10 +6635,10 @@
         <v>0</v>
       </c>
       <c r="AK41">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AL41">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -6844,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6870,13 +6676,13 @@
         <v>44763.5</v>
       </c>
       <c r="I42">
-        <v>0.94099999999999995</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J42" s="3">
         <v>3.5</v>
       </c>
       <c r="K42">
-        <v>0.31366666666666659</v>
+        <v>0.3136666666666666</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6960,16 +6766,16 @@
         <v>0</v>
       </c>
       <c r="AM42">
-        <v>0.31366666666666659</v>
+        <v>0.3136666666666666</v>
       </c>
       <c r="AN42">
-        <v>0.31366666666666659</v>
+        <v>0.3136666666666666</v>
       </c>
       <c r="AO42">
-        <v>0.31366666666666659</v>
+        <v>0.3136666666666666</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7094,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7120,13 +6926,13 @@
         <v>44738</v>
       </c>
       <c r="I44">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="J44" s="3">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -7141,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -7219,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7245,13 +7051,13 @@
         <v>44740</v>
       </c>
       <c r="I45">
-        <v>4.5149999999999997</v>
+        <v>4.515</v>
       </c>
       <c r="J45" s="3">
         <v>5</v>
       </c>
       <c r="K45">
-        <v>0.90299999999999991</v>
+        <v>0.9029999999999999</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -7260,19 +7066,19 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0.90299999999999991</v>
+        <v>0.9029999999999999</v>
       </c>
       <c r="O45">
-        <v>0.90299999999999991</v>
+        <v>0.9029999999999999</v>
       </c>
       <c r="P45">
-        <v>0.90299999999999991</v>
+        <v>0.9029999999999999</v>
       </c>
       <c r="Q45">
-        <v>0.90299999999999991</v>
+        <v>0.9029999999999999</v>
       </c>
       <c r="R45">
-        <v>0.90299999999999991</v>
+        <v>0.9029999999999999</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -7344,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7370,13 +7176,13 @@
         <v>44741</v>
       </c>
       <c r="I46">
-        <v>0.22600000000000001</v>
+        <v>0.226</v>
       </c>
       <c r="J46" s="3">
         <v>1</v>
       </c>
       <c r="K46">
-        <v>0.22600000000000001</v>
+        <v>0.226</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -7400,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0.22600000000000001</v>
+        <v>0.226</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -7469,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7492,7 +7298,7 @@
         <v>44742</v>
       </c>
       <c r="H47" s="2">
-        <v>44754.041666666657</v>
+        <v>44754.04166666666</v>
       </c>
       <c r="I47">
         <v>11.776</v>
@@ -7501,7 +7307,7 @@
         <v>13.04166666666667</v>
       </c>
       <c r="K47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -7528,43 +7334,43 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="U47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="V47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="W47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="X47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="Y47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="Z47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="AA47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="AB47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="AC47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="AD47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="AE47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="AF47">
-        <v>0.90584615384615386</v>
+        <v>0.9058461538461539</v>
       </c>
       <c r="AG47">
         <v>0</v>
@@ -7594,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7626,7 +7432,7 @@
         <v>2</v>
       </c>
       <c r="K48">
-        <v>0.90300000000000002</v>
+        <v>0.903</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -7692,10 +7498,10 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>0.90300000000000002</v>
+        <v>0.903</v>
       </c>
       <c r="AH48">
-        <v>0.90300000000000002</v>
+        <v>0.903</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -7719,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7745,13 +7551,13 @@
         <v>44758</v>
       </c>
       <c r="I49">
-        <v>0.90300000000000002</v>
+        <v>0.903</v>
       </c>
       <c r="J49" s="3">
         <v>2</v>
       </c>
       <c r="K49">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -7823,10 +7629,10 @@
         <v>0</v>
       </c>
       <c r="AI49">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AJ49">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AK49">
         <v>0</v>
@@ -7844,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7969,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7995,13 +7801,13 @@
         <v>44760.375</v>
       </c>
       <c r="I51">
-        <v>0.50800000000000001</v>
+        <v>0.508</v>
       </c>
       <c r="J51" s="3">
         <v>1.375</v>
       </c>
       <c r="K51">
-        <v>0.50800000000000001</v>
+        <v>0.508</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -8082,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>0.50800000000000001</v>
+        <v>0.508</v>
       </c>
       <c r="AM51">
         <v>0</v>
@@ -8094,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -8120,13 +7926,13 @@
         <v>44741</v>
       </c>
       <c r="I52">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="J52" s="3">
         <v>1</v>
       </c>
       <c r="K52">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -8150,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -8219,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -8245,13 +8051,13 @@
         <v>44741</v>
       </c>
       <c r="I53">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="J53" s="3">
         <v>1</v>
       </c>
       <c r="K53">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -8275,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -8344,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -8376,7 +8182,7 @@
         <v>4</v>
       </c>
       <c r="K54">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -8427,16 +8233,16 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AC54">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AD54">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AE54">
-        <v>0.45150000000000001</v>
+        <v>0.4515</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -8469,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -8495,13 +8301,13 @@
         <v>44752</v>
       </c>
       <c r="I55">
-        <v>0.81299999999999994</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="J55" s="3">
         <v>3</v>
       </c>
       <c r="K55">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -8552,13 +8358,13 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="AC55">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="AD55">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="AE55">
         <v>0</v>
@@ -8594,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -8620,13 +8426,13 @@
         <v>44755</v>
       </c>
       <c r="I56">
-        <v>0.81299999999999994</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="J56" s="3">
         <v>2</v>
       </c>
       <c r="K56">
-        <v>0.40649999999999997</v>
+        <v>0.4065</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -8689,10 +8495,10 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>0.40649999999999997</v>
+        <v>0.4065</v>
       </c>
       <c r="AG56">
-        <v>0.40649999999999997</v>
+        <v>0.4065</v>
       </c>
       <c r="AH56">
         <v>0</v>
@@ -8719,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -8745,13 +8551,13 @@
         <v>44739</v>
       </c>
       <c r="I57">
-        <v>0.94099999999999995</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J57" s="3">
         <v>4</v>
       </c>
       <c r="K57">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -8760,16 +8566,16 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="O57">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="P57">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="Q57">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -8844,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -8969,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -8995,13 +8801,13 @@
         <v>44741</v>
       </c>
       <c r="I59">
-        <v>0.94099999999999995</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J59" s="3">
         <v>2</v>
       </c>
       <c r="K59">
-        <v>0.47049999999999997</v>
+        <v>0.4705</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -9022,10 +8828,10 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0.47049999999999997</v>
+        <v>0.4705</v>
       </c>
       <c r="S59">
-        <v>0.47049999999999997</v>
+        <v>0.4705</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -9094,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -9120,13 +8926,13 @@
         <v>44741</v>
       </c>
       <c r="I60">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="J60" s="3">
         <v>1</v>
       </c>
       <c r="K60">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -9150,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -9219,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -9245,13 +9051,13 @@
         <v>44743</v>
       </c>
       <c r="I61">
-        <v>0.94799999999999995</v>
+        <v>0.948</v>
       </c>
       <c r="J61" s="3">
         <v>1</v>
       </c>
       <c r="K61">
-        <v>0.94799999999999995</v>
+        <v>0.948</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -9281,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>0.94799999999999995</v>
+        <v>0.948</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -9344,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -9367,16 +9173,16 @@
         <v>44746</v>
       </c>
       <c r="H62" s="2">
-        <v>44749.166666666657</v>
+        <v>44749.16666666666</v>
       </c>
       <c r="I62">
-        <v>0.94099999999999995</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J62" s="3">
         <v>4.166666666666667</v>
       </c>
       <c r="K62">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -9415,16 +9221,16 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="Y62">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="Z62">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="AA62">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -9469,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -9495,13 +9301,13 @@
         <v>44750</v>
       </c>
       <c r="I63">
-        <v>0.94099999999999995</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J63" s="3">
         <v>1</v>
       </c>
       <c r="K63">
-        <v>0.94099999999999995</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -9552,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="AB63">
-        <v>0.94099999999999995</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -9594,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -9719,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:41">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -9844,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:41">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -9876,7 +9682,7 @@
         <v>2</v>
       </c>
       <c r="K66">
-        <v>0.23499999999999999</v>
+        <v>0.235</v>
       </c>
       <c r="L66">
         <v>0</v>
@@ -9954,10 +9760,10 @@
         <v>0</v>
       </c>
       <c r="AK66">
-        <v>0.23499999999999999</v>
+        <v>0.235</v>
       </c>
       <c r="AL66">
-        <v>0.23499999999999999</v>
+        <v>0.235</v>
       </c>
       <c r="AM66">
         <v>0</v>
@@ -9969,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:41">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -9995,13 +9801,13 @@
         <v>44736</v>
       </c>
       <c r="I67">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
       </c>
       <c r="K67">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -10010,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -10094,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:41">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10120,13 +9926,13 @@
         <v>44758</v>
       </c>
       <c r="I68">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="J68" s="3">
         <v>1</v>
       </c>
       <c r="K68">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -10201,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="AJ68">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="AK68">
         <v>0</v>
@@ -10219,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:41">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10245,13 +10051,13 @@
         <v>44736</v>
       </c>
       <c r="I69">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="J69" s="3">
         <v>1</v>
       </c>
       <c r="K69">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -10260,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -10344,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:41">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10370,13 +10176,13 @@
         <v>44758</v>
       </c>
       <c r="I70">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="J70" s="3">
         <v>1</v>
       </c>
       <c r="K70">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -10451,7 +10257,7 @@
         <v>0</v>
       </c>
       <c r="AJ70">
-        <v>5.6000000000000001E-2</v>
+        <v>0.056</v>
       </c>
       <c r="AK70">
         <v>0</v>
@@ -10469,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:41">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10495,13 +10301,13 @@
         <v>44753.5</v>
       </c>
       <c r="I71">
-        <v>9.4060000000000006</v>
+        <v>9.406000000000001</v>
       </c>
       <c r="J71" s="3">
         <v>18.5</v>
       </c>
       <c r="K71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -10510,58 +10316,58 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="O71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="P71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="Q71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="R71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="S71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="T71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="U71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="V71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="W71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="X71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="Y71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="Z71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="AA71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="AB71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="AC71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="AD71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="AE71">
-        <v>0.52255555555555555</v>
+        <v>0.5225555555555556</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -10594,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:41">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10626,7 +10432,7 @@
         <v>5</v>
       </c>
       <c r="K72">
-        <v>0.15040000000000001</v>
+        <v>0.1504</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -10665,19 +10471,19 @@
         <v>0</v>
       </c>
       <c r="X72">
-        <v>0.15040000000000001</v>
+        <v>0.1504</v>
       </c>
       <c r="Y72">
-        <v>0.15040000000000001</v>
+        <v>0.1504</v>
       </c>
       <c r="Z72">
-        <v>0.15040000000000001</v>
+        <v>0.1504</v>
       </c>
       <c r="AA72">
-        <v>0.15040000000000001</v>
+        <v>0.1504</v>
       </c>
       <c r="AB72">
-        <v>0.15040000000000001</v>
+        <v>0.1504</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -10719,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:41">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10844,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:41">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10870,13 +10676,13 @@
         <v>44757</v>
       </c>
       <c r="I74">
-        <v>0.94099999999999995</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J74" s="3">
         <v>4</v>
       </c>
       <c r="K74">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -10939,16 +10745,16 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="AG74">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="AH74">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="AI74">
-        <v>0.23524999999999999</v>
+        <v>0.23525</v>
       </c>
       <c r="AJ74">
         <v>0</v>
@@ -10969,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:41">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10995,13 +10801,13 @@
         <v>44736</v>
       </c>
       <c r="I75">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="J75" s="3">
         <v>1</v>
       </c>
       <c r="K75">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -11010,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -11094,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:41">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11120,13 +10926,13 @@
         <v>44737</v>
       </c>
       <c r="I76">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="J76" s="3">
         <v>1</v>
       </c>
       <c r="K76">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -11138,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -11219,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:41">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11251,7 +11057,7 @@
         <v>2.25</v>
       </c>
       <c r="K77">
-        <v>0.30499999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -11290,10 +11096,10 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>0.30499999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="Y77">
-        <v>0.30499999999999999</v>
+        <v>0.305</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -11344,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:41">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11370,7 +11176,7 @@
         <v>44742</v>
       </c>
       <c r="I78">
-        <v>1.5049999999999999</v>
+        <v>1.505</v>
       </c>
       <c r="J78" s="3">
         <v>6</v>
@@ -11469,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:41">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11501,7 +11307,7 @@
         <v>6</v>
       </c>
       <c r="K79">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -11513,22 +11319,22 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="P79">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="Q79">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="R79">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="S79">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="T79">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="U79">
         <v>0</v>
@@ -11594,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:41">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11626,7 +11432,7 @@
         <v>6</v>
       </c>
       <c r="K80">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -11689,22 +11495,22 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="AG80">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="AH80">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="AI80">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="AJ80">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="AK80">
-        <v>0.33866666666666673</v>
+        <v>0.3386666666666667</v>
       </c>
       <c r="AL80">
         <v>0</v>
@@ -11719,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:41">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11745,13 +11551,13 @@
         <v>44759</v>
       </c>
       <c r="I81">
-        <v>0.81299999999999994</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="J81" s="3">
         <v>2</v>
       </c>
       <c r="K81">
-        <v>0.40649999999999997</v>
+        <v>0.4065</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -11826,10 +11632,10 @@
         <v>0</v>
       </c>
       <c r="AJ81">
-        <v>0.40649999999999997</v>
+        <v>0.4065</v>
       </c>
       <c r="AK81">
-        <v>0.40649999999999997</v>
+        <v>0.4065</v>
       </c>
       <c r="AL81">
         <v>0</v>
@@ -11844,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:41">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11870,13 +11676,13 @@
         <v>44751</v>
       </c>
       <c r="I82">
-        <v>1.5049999999999999</v>
+        <v>1.505</v>
       </c>
       <c r="J82" s="3">
         <v>8</v>
       </c>
       <c r="K82">
-        <v>0.18812499999999999</v>
+        <v>0.188125</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -11909,28 +11715,28 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>0.18812499999999999</v>
+        <v>0.188125</v>
       </c>
       <c r="W82">
-        <v>0.18812499999999999</v>
+        <v>0.188125</v>
       </c>
       <c r="X82">
-        <v>0.18812499999999999</v>
+        <v>0.188125</v>
       </c>
       <c r="Y82">
-        <v>0.18812499999999999</v>
+        <v>0.188125</v>
       </c>
       <c r="Z82">
-        <v>0.18812499999999999</v>
+        <v>0.188125</v>
       </c>
       <c r="AA82">
-        <v>0.18812499999999999</v>
+        <v>0.188125</v>
       </c>
       <c r="AB82">
-        <v>0.18812499999999999</v>
+        <v>0.188125</v>
       </c>
       <c r="AC82">
-        <v>0.18812499999999999</v>
+        <v>0.188125</v>
       </c>
       <c r="AD82">
         <v>0</v>
@@ -11969,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -12001,7 +11807,7 @@
         <v>3</v>
       </c>
       <c r="K83">
-        <v>3.7666666666666668E-2</v>
+        <v>0.03766666666666667</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -12037,13 +11843,13 @@
         <v>0</v>
       </c>
       <c r="W83">
-        <v>3.7666666666666668E-2</v>
+        <v>0.03766666666666667</v>
       </c>
       <c r="X83">
-        <v>3.7666666666666668E-2</v>
+        <v>0.03766666666666667</v>
       </c>
       <c r="Y83">
-        <v>3.7666666666666668E-2</v>
+        <v>0.03766666666666667</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -12094,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -12120,13 +11926,13 @@
         <v>44748</v>
       </c>
       <c r="I84">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="J84" s="3">
         <v>1</v>
       </c>
       <c r="K84">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -12171,7 +11977,7 @@
         <v>0</v>
       </c>
       <c r="Z84">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="AA84">
         <v>0</v>
@@ -12219,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -12344,7 +12150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -12469,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12495,13 +12301,13 @@
         <v>44753</v>
       </c>
       <c r="I87">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="J87" s="3">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -12561,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="AE87">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -12594,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:41">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -12620,13 +12426,13 @@
         <v>44740</v>
       </c>
       <c r="I88">
-        <v>0.27100000000000002</v>
+        <v>0.271</v>
       </c>
       <c r="J88" s="3">
         <v>4</v>
       </c>
       <c r="K88">
-        <v>6.7750000000000005E-2</v>
+        <v>0.06775</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -12638,16 +12444,16 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <v>6.7750000000000005E-2</v>
+        <v>0.06775</v>
       </c>
       <c r="P88">
-        <v>6.7750000000000005E-2</v>
+        <v>0.06775</v>
       </c>
       <c r="Q88">
-        <v>6.7750000000000005E-2</v>
+        <v>0.06775</v>
       </c>
       <c r="R88">
-        <v>6.7750000000000005E-2</v>
+        <v>0.06775</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -12719,7 +12525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -12745,13 +12551,13 @@
         <v>44749</v>
       </c>
       <c r="I89">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="J89" s="3">
         <v>2</v>
       </c>
       <c r="K89">
-        <v>6.7500000000000004E-2</v>
+        <v>0.0675</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -12796,10 +12602,10 @@
         <v>0</v>
       </c>
       <c r="Z89">
-        <v>6.7500000000000004E-2</v>
+        <v>0.0675</v>
       </c>
       <c r="AA89">
-        <v>6.7500000000000004E-2</v>
+        <v>0.0675</v>
       </c>
       <c r="AB89">
         <v>0</v>
@@ -12844,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:41">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12870,13 +12676,13 @@
         <v>44758</v>
       </c>
       <c r="I90">
-        <v>1.6930000000000001</v>
+        <v>1.693</v>
       </c>
       <c r="J90" s="3">
         <v>8</v>
       </c>
       <c r="K90">
-        <v>0.21162500000000001</v>
+        <v>0.211625</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -12930,28 +12736,28 @@
         <v>0</v>
       </c>
       <c r="AC90">
-        <v>0.21162500000000001</v>
+        <v>0.211625</v>
       </c>
       <c r="AD90">
-        <v>0.21162500000000001</v>
+        <v>0.211625</v>
       </c>
       <c r="AE90">
-        <v>0.21162500000000001</v>
+        <v>0.211625</v>
       </c>
       <c r="AF90">
-        <v>0.21162500000000001</v>
+        <v>0.211625</v>
       </c>
       <c r="AG90">
-        <v>0.21162500000000001</v>
+        <v>0.211625</v>
       </c>
       <c r="AH90">
-        <v>0.21162500000000001</v>
+        <v>0.211625</v>
       </c>
       <c r="AI90">
-        <v>0.21162500000000001</v>
+        <v>0.211625</v>
       </c>
       <c r="AJ90">
-        <v>0.21162500000000001</v>
+        <v>0.211625</v>
       </c>
       <c r="AK90">
         <v>0</v>
@@ -12969,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:41">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -13094,7 +12900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:41">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -13120,13 +12926,13 @@
         <v>44762</v>
       </c>
       <c r="I92">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="J92" s="3">
         <v>1</v>
       </c>
       <c r="K92">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -13213,13 +13019,13 @@
         <v>0</v>
       </c>
       <c r="AN92">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="AO92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -13245,13 +13051,13 @@
         <v>44743</v>
       </c>
       <c r="I93">
-        <v>1.2190000000000001</v>
+        <v>1.219</v>
       </c>
       <c r="J93" s="3">
         <v>4</v>
       </c>
       <c r="K93">
-        <v>0.30475000000000002</v>
+        <v>0.30475</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -13272,16 +13078,16 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>0.30475000000000002</v>
+        <v>0.30475</v>
       </c>
       <c r="S93">
-        <v>0.30475000000000002</v>
+        <v>0.30475</v>
       </c>
       <c r="T93">
-        <v>0.30475000000000002</v>
+        <v>0.30475</v>
       </c>
       <c r="U93">
-        <v>0.30475000000000002</v>
+        <v>0.30475</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -13344,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -13376,7 +13182,7 @@
         <v>2</v>
       </c>
       <c r="K94">
-        <v>0.91449999999999998</v>
+        <v>0.9145</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -13430,10 +13236,10 @@
         <v>0</v>
       </c>
       <c r="AC94">
-        <v>0.91449999999999998</v>
+        <v>0.9145</v>
       </c>
       <c r="AD94">
-        <v>0.91449999999999998</v>
+        <v>0.9145</v>
       </c>
       <c r="AE94">
         <v>0</v>
@@ -13469,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:41">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -13594,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:41">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -13719,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -13745,13 +13551,13 @@
         <v>44762</v>
       </c>
       <c r="I97">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="J97" s="3">
         <v>1</v>
       </c>
       <c r="K97">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -13838,13 +13644,13 @@
         <v>0</v>
       </c>
       <c r="AN97">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="AO97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -13969,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -14094,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -14219,7 +14025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -14344,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -14469,7 +14275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -14594,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -14620,13 +14426,13 @@
         <v>44757</v>
       </c>
       <c r="I104">
-        <v>0.22600000000000001</v>
+        <v>0.226</v>
       </c>
       <c r="J104" s="3">
         <v>3</v>
       </c>
       <c r="K104">
-        <v>7.5333333333333335E-2</v>
+        <v>0.07533333333333334</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -14692,13 +14498,13 @@
         <v>0</v>
       </c>
       <c r="AG104">
-        <v>7.5333333333333335E-2</v>
+        <v>0.07533333333333334</v>
       </c>
       <c r="AH104">
-        <v>7.5333333333333335E-2</v>
+        <v>0.07533333333333334</v>
       </c>
       <c r="AI104">
-        <v>7.5333333333333335E-2</v>
+        <v>0.07533333333333334</v>
       </c>
       <c r="AJ104">
         <v>0</v>
@@ -14719,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -14844,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -14870,13 +14676,13 @@
         <v>44744</v>
       </c>
       <c r="I106">
-        <v>0.81299999999999994</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="J106" s="3">
         <v>5</v>
       </c>
       <c r="K106">
-        <v>0.16259999999999999</v>
+        <v>0.1626</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -14897,19 +14703,19 @@
         <v>0</v>
       </c>
       <c r="R106">
-        <v>0.16259999999999999</v>
+        <v>0.1626</v>
       </c>
       <c r="S106">
-        <v>0.16259999999999999</v>
+        <v>0.1626</v>
       </c>
       <c r="T106">
-        <v>0.16259999999999999</v>
+        <v>0.1626</v>
       </c>
       <c r="U106">
-        <v>0.16259999999999999</v>
+        <v>0.1626</v>
       </c>
       <c r="V106">
-        <v>0.16259999999999999</v>
+        <v>0.1626</v>
       </c>
       <c r="W106">
         <v>0</v>
@@ -14969,7 +14775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -14995,13 +14801,13 @@
         <v>44745</v>
       </c>
       <c r="I107">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="J107" s="3">
         <v>1</v>
       </c>
       <c r="K107">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -15037,7 +14843,7 @@
         <v>0</v>
       </c>
       <c r="W107">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="X107">
         <v>0</v>
@@ -15094,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -15120,13 +14926,13 @@
         <v>44745</v>
       </c>
       <c r="I108">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="J108" s="3">
         <v>1</v>
       </c>
       <c r="K108">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -15162,7 +14968,7 @@
         <v>0</v>
       </c>
       <c r="W108">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="X108">
         <v>0</v>
@@ -15219,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -15245,13 +15051,13 @@
         <v>44746</v>
       </c>
       <c r="I109">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="J109" s="3">
         <v>1</v>
       </c>
       <c r="K109">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -15290,7 +15096,7 @@
         <v>0</v>
       </c>
       <c r="X109">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="Y109">
         <v>0</v>
@@ -15344,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -15370,13 +15176,13 @@
         <v>44746</v>
       </c>
       <c r="I110">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="J110" s="3">
         <v>1</v>
       </c>
       <c r="K110">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -15415,7 +15221,7 @@
         <v>0</v>
       </c>
       <c r="X110">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="Y110">
         <v>0</v>
@@ -15469,7 +15275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -15495,13 +15301,13 @@
         <v>44746</v>
       </c>
       <c r="I111">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J111" s="3">
         <v>1</v>
       </c>
       <c r="K111">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -15540,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="X111">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="Y111">
         <v>0</v>
@@ -15594,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -15620,7 +15426,7 @@
         <v>44741</v>
       </c>
       <c r="I112">
-        <v>0.56399999999999995</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="J112" s="3">
         <v>3</v>
@@ -15719,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:41">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -15745,13 +15551,13 @@
         <v>44743</v>
       </c>
       <c r="I113">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="J113" s="3">
         <v>1</v>
       </c>
       <c r="K113">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -15781,7 +15587,7 @@
         <v>0</v>
       </c>
       <c r="U113">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -15844,7 +15650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:41">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -15870,13 +15676,13 @@
         <v>44744</v>
       </c>
       <c r="I114">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J114" s="3">
         <v>1</v>
       </c>
       <c r="K114">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -15909,7 +15715,7 @@
         <v>0</v>
       </c>
       <c r="V114">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -15969,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:41">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -15995,13 +15801,13 @@
         <v>44742</v>
       </c>
       <c r="I115">
-        <v>0.33900000000000002</v>
+        <v>0.339</v>
       </c>
       <c r="J115" s="3">
         <v>2</v>
       </c>
       <c r="K115">
-        <v>0.16950000000000001</v>
+        <v>0.1695</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -16025,10 +15831,10 @@
         <v>0</v>
       </c>
       <c r="S115">
-        <v>0.16950000000000001</v>
+        <v>0.1695</v>
       </c>
       <c r="T115">
-        <v>0.16950000000000001</v>
+        <v>0.1695</v>
       </c>
       <c r="U115">
         <v>0</v>
@@ -16094,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:41">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -16120,13 +15926,13 @@
         <v>44744</v>
       </c>
       <c r="I116">
-        <v>0.33900000000000002</v>
+        <v>0.339</v>
       </c>
       <c r="J116" s="3">
         <v>2</v>
       </c>
       <c r="K116">
-        <v>0.16950000000000001</v>
+        <v>0.1695</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -16156,10 +15962,10 @@
         <v>0</v>
       </c>
       <c r="U116">
-        <v>0.16950000000000001</v>
+        <v>0.1695</v>
       </c>
       <c r="V116">
-        <v>0.16950000000000001</v>
+        <v>0.1695</v>
       </c>
       <c r="W116">
         <v>0</v>
@@ -16219,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:41">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -16245,13 +16051,13 @@
         <v>44760</v>
       </c>
       <c r="I117">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="J117" s="3">
         <v>1</v>
       </c>
       <c r="K117">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -16332,7 +16138,7 @@
         <v>0</v>
       </c>
       <c r="AL117">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="AM117">
         <v>0</v>
@@ -16344,7 +16150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:41">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -16370,13 +16176,13 @@
         <v>44758</v>
       </c>
       <c r="I118">
-        <v>0.36099999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="J118" s="3">
         <v>2</v>
       </c>
       <c r="K118">
-        <v>0.18049999999999999</v>
+        <v>0.1805</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -16448,10 +16254,10 @@
         <v>0</v>
       </c>
       <c r="AI118">
-        <v>0.18049999999999999</v>
+        <v>0.1805</v>
       </c>
       <c r="AJ118">
-        <v>0.18049999999999999</v>
+        <v>0.1805</v>
       </c>
       <c r="AK118">
         <v>0</v>
@@ -16469,7 +16275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:41">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -16492,16 +16298,16 @@
         <v>44757</v>
       </c>
       <c r="H119" s="2">
-        <v>44758.083333333343</v>
+        <v>44758.08333333334</v>
       </c>
       <c r="I119">
-        <v>0.94099999999999995</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="J119" s="3">
         <v>2.083333333333333</v>
       </c>
       <c r="K119">
-        <v>0.47049999999999997</v>
+        <v>0.4705</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -16573,10 +16379,10 @@
         <v>0</v>
       </c>
       <c r="AI119">
-        <v>0.47049999999999997</v>
+        <v>0.4705</v>
       </c>
       <c r="AJ119">
-        <v>0.47049999999999997</v>
+        <v>0.4705</v>
       </c>
       <c r="AK119">
         <v>0</v>
@@ -16594,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:41">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -16719,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:41">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -16745,13 +16551,13 @@
         <v>44760</v>
       </c>
       <c r="I121">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
       <c r="J121" s="3">
         <v>1</v>
       </c>
       <c r="K121">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -16832,7 +16638,7 @@
         <v>0</v>
       </c>
       <c r="AL121">
-        <v>1.7000000000000001E-2</v>
+        <v>0.017</v>
       </c>
       <c r="AM121">
         <v>0</v>
@@ -16844,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:41">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -16870,13 +16676,13 @@
         <v>44761</v>
       </c>
       <c r="I122">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
       </c>
       <c r="K122">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -16960,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="AM122">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="AN122">
         <v>0</v>
@@ -16969,7 +16775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:41">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -16995,13 +16801,13 @@
         <v>44761</v>
       </c>
       <c r="I123">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="J123" s="3">
         <v>1</v>
       </c>
       <c r="K123">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -17085,7 +16891,7 @@
         <v>0</v>
       </c>
       <c r="AM123">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="AN123">
         <v>0</v>
@@ -17094,7 +16900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:41">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -17120,13 +16926,13 @@
         <v>44746</v>
       </c>
       <c r="I124">
-        <v>0.90300000000000002</v>
+        <v>0.903</v>
       </c>
       <c r="J124" s="3">
         <v>5</v>
       </c>
       <c r="K124">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -17153,19 +16959,19 @@
         <v>0</v>
       </c>
       <c r="T124">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="U124">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="V124">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="W124">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="X124">
-        <v>0.18060000000000001</v>
+        <v>0.1806</v>
       </c>
       <c r="Y124">
         <v>0</v>
@@ -17219,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:41">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -17242,16 +17048,16 @@
         <v>44742</v>
       </c>
       <c r="H125" s="2">
-        <v>44742.666666666657</v>
+        <v>44742.66666666666</v>
       </c>
       <c r="I125">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="J125" s="3">
         <v>1.666666666666667</v>
       </c>
       <c r="K125">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -17278,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="T125">
-        <v>0.30099999999999999</v>
+        <v>0.301</v>
       </c>
       <c r="U125">
         <v>0</v>
@@ -17344,7 +17150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:41">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -17370,13 +17176,13 @@
         <v>44758</v>
       </c>
       <c r="I126">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="J126" s="3">
         <v>2</v>
       </c>
       <c r="K126">
-        <v>9.0499999999999997E-2</v>
+        <v>0.0905</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -17448,10 +17254,10 @@
         <v>0</v>
       </c>
       <c r="AI126">
-        <v>9.0499999999999997E-2</v>
+        <v>0.0905</v>
       </c>
       <c r="AJ126">
-        <v>9.0499999999999997E-2</v>
+        <v>0.0905</v>
       </c>
       <c r="AK126">
         <v>0</v>
@@ -17469,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:41">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -17495,13 +17301,13 @@
         <v>44759</v>
       </c>
       <c r="I127">
-        <v>0.16600000000000001</v>
+        <v>0.166</v>
       </c>
       <c r="J127" s="3">
         <v>1</v>
       </c>
       <c r="K127">
-        <v>0.16600000000000001</v>
+        <v>0.166</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -17579,7 +17385,7 @@
         <v>0</v>
       </c>
       <c r="AK127">
-        <v>0.16600000000000001</v>
+        <v>0.166</v>
       </c>
       <c r="AL127">
         <v>0</v>
@@ -17594,7 +17400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:41">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -17620,13 +17426,13 @@
         <v>44747</v>
       </c>
       <c r="I128">
-        <v>1.3540000000000001</v>
+        <v>1.354</v>
       </c>
       <c r="J128" s="3">
         <v>5</v>
       </c>
       <c r="K128">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -17656,19 +17462,19 @@
         <v>0</v>
       </c>
       <c r="U128">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="V128">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="W128">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="X128">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="Y128">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="Z128">
         <v>0</v>
@@ -17719,7 +17525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:41">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -17745,13 +17551,13 @@
         <v>44752</v>
       </c>
       <c r="I129">
-        <v>1.3540000000000001</v>
+        <v>1.354</v>
       </c>
       <c r="J129" s="3">
         <v>5</v>
       </c>
       <c r="K129">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -17796,19 +17602,19 @@
         <v>0</v>
       </c>
       <c r="Z129">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="AA129">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="AB129">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="AC129">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="AD129">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="AE129">
         <v>0</v>
@@ -17844,7 +17650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:41">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -17870,13 +17676,13 @@
         <v>44757</v>
       </c>
       <c r="I130">
-        <v>1.3540000000000001</v>
+        <v>1.354</v>
       </c>
       <c r="J130" s="3">
         <v>5</v>
       </c>
       <c r="K130">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -17936,19 +17742,19 @@
         <v>0</v>
       </c>
       <c r="AE130">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="AF130">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="AG130">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="AH130">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="AI130">
-        <v>0.27079999999999999</v>
+        <v>0.2708</v>
       </c>
       <c r="AJ130">
         <v>0</v>
@@ -17969,7 +17775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:41">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -18001,7 +17807,7 @@
         <v>10</v>
       </c>
       <c r="K131">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -18016,34 +17822,34 @@
         <v>0</v>
       </c>
       <c r="P131">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="Q131">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="R131">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="S131">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="T131">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="U131">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="V131">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="W131">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="X131">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="Y131">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="Z131">
         <v>0</v>
@@ -18094,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:41">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -18126,7 +17932,7 @@
         <v>10</v>
       </c>
       <c r="K132">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="L132">
         <v>0</v>
@@ -18150,34 +17956,34 @@
         <v>0</v>
       </c>
       <c r="S132">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="T132">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="U132">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="V132">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="W132">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="X132">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="Y132">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="Z132">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="AA132">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="AB132">
-        <v>7.5200000000000003E-2</v>
+        <v>0.0752</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -18221,8 +18027,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/programing/out.xlsx
+++ b/programing/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="384">
   <si>
     <t>ID</t>
   </si>
@@ -163,108 +163,63 @@
     <t>1.2.1.91</t>
   </si>
   <si>
-    <t>1.2.3.10</t>
+    <t>1.2.4.10</t>
   </si>
   <si>
     <t>1.4.1.1</t>
   </si>
   <si>
-    <t>1.4.3.1</t>
-  </si>
-  <si>
-    <t>1.4.3.2</t>
-  </si>
-  <si>
-    <t>1.4.3.3</t>
-  </si>
-  <si>
-    <t>1.4.3.4</t>
-  </si>
-  <si>
-    <t>1.4.3.5</t>
-  </si>
-  <si>
-    <t>1.4.3.6</t>
-  </si>
-  <si>
-    <t>1.4.3.7</t>
-  </si>
-  <si>
-    <t>1.4.3.8</t>
-  </si>
-  <si>
-    <t>1.4.3.9</t>
-  </si>
-  <si>
-    <t>1.4.3.10</t>
-  </si>
-  <si>
-    <t>1.4.3.11</t>
-  </si>
-  <si>
-    <t>1.4.3.12</t>
-  </si>
-  <si>
-    <t>1.4.3.13</t>
-  </si>
-  <si>
-    <t>1.4.3.14</t>
-  </si>
-  <si>
-    <t>1.4.3.15</t>
-  </si>
-  <si>
-    <t>1.4.3.16</t>
-  </si>
-  <si>
-    <t>1.4.3.17</t>
-  </si>
-  <si>
-    <t>1.4.3.18</t>
-  </si>
-  <si>
-    <t>1.4.3.19</t>
-  </si>
-  <si>
-    <t>1.4.3.20</t>
-  </si>
-  <si>
-    <t>1.4.3.21</t>
-  </si>
-  <si>
-    <t>1.4.3.22</t>
-  </si>
-  <si>
-    <t>1.4.3.23</t>
-  </si>
-  <si>
-    <t>1.4.3.24</t>
-  </si>
-  <si>
-    <t>1.4.3.25</t>
-  </si>
-  <si>
-    <t>1.4.3.26</t>
-  </si>
-  <si>
-    <t>1.4.3.27</t>
-  </si>
-  <si>
-    <t>1.4.3.28</t>
-  </si>
-  <si>
-    <t>1.4.3.29</t>
-  </si>
-  <si>
-    <t>1.4.3.30</t>
+    <t>1.4.2.1</t>
   </si>
   <si>
     <t>1.4.4.1</t>
   </si>
   <si>
+    <t>1.4.4.2</t>
+  </si>
+  <si>
+    <t>1.4.4.3</t>
+  </si>
+  <si>
+    <t>1.4.4.4</t>
+  </si>
+  <si>
+    <t>1.4.4.5</t>
+  </si>
+  <si>
+    <t>1.4.4.6</t>
+  </si>
+  <si>
+    <t>1.4.4.7</t>
+  </si>
+  <si>
+    <t>1.4.5.1</t>
+  </si>
+  <si>
+    <t>1.4.5.2</t>
+  </si>
+  <si>
     <t>1.4.5.3</t>
   </si>
   <si>
+    <t>1.4.5.4</t>
+  </si>
+  <si>
+    <t>1.4.5.5</t>
+  </si>
+  <si>
+    <t>1.4.5.6</t>
+  </si>
+  <si>
+    <t>1.4.5.7</t>
+  </si>
+  <si>
+    <t>1.4.5.8</t>
+  </si>
+  <si>
+    <t>1.4.5.9</t>
+  </si>
+  <si>
     <t>1.4.5.10</t>
   </si>
   <si>
@@ -274,6 +229,9 @@
     <t>1.4.5.12</t>
   </si>
   <si>
+    <t>1.4.5.13</t>
+  </si>
+  <si>
     <t>1.4.5.14</t>
   </si>
   <si>
@@ -286,36 +244,48 @@
     <t>1.4.5.17</t>
   </si>
   <si>
+    <t>1.4.5.18</t>
+  </si>
+  <si>
+    <t>1.4.5.19</t>
+  </si>
+  <si>
+    <t>1.4.5.20</t>
+  </si>
+  <si>
+    <t>1.4.5.21</t>
+  </si>
+  <si>
+    <t>1.4.5.22</t>
+  </si>
+  <si>
+    <t>1.4.5.23</t>
+  </si>
+  <si>
     <t>1.4.5.24</t>
   </si>
   <si>
     <t>1.4.5.25</t>
   </si>
   <si>
-    <t>1.4.5.31</t>
-  </si>
-  <si>
-    <t>1.4.5.32</t>
-  </si>
-  <si>
-    <t>1.4.5.33</t>
+    <t>1.4.5.26</t>
+  </si>
+  <si>
+    <t>1.4.5.27</t>
   </si>
   <si>
     <t>1.4.6.3</t>
   </si>
   <si>
-    <t>1.4.6.5</t>
-  </si>
-  <si>
-    <t>1.4.6.6</t>
-  </si>
-  <si>
-    <t>1.4.6.7</t>
+    <t>1.4.6.10</t>
   </si>
   <si>
     <t>1.4.6.11</t>
   </si>
   <si>
+    <t>1.4.6.12</t>
+  </si>
+  <si>
     <t>1.4.6.14</t>
   </si>
   <si>
@@ -325,22 +295,52 @@
     <t>1.4.6.16</t>
   </si>
   <si>
-    <t>1.4.6.19</t>
-  </si>
-  <si>
-    <t>1.4.6.20</t>
-  </si>
-  <si>
-    <t>1.4.7.1</t>
-  </si>
-  <si>
-    <t>1.4.7.2</t>
+    <t>1.4.6.17</t>
+  </si>
+  <si>
+    <t>1.4.6.24</t>
+  </si>
+  <si>
+    <t>1.4.6.25</t>
+  </si>
+  <si>
+    <t>1.4.6.31</t>
+  </si>
+  <si>
+    <t>1.4.6.32</t>
+  </si>
+  <si>
+    <t>1.4.6.33</t>
   </si>
   <si>
     <t>1.4.7.3</t>
   </si>
   <si>
-    <t>1.4.7.4</t>
+    <t>1.4.7.5</t>
+  </si>
+  <si>
+    <t>1.4.7.6</t>
+  </si>
+  <si>
+    <t>1.4.7.7</t>
+  </si>
+  <si>
+    <t>1.4.7.11</t>
+  </si>
+  <si>
+    <t>1.4.7.14</t>
+  </si>
+  <si>
+    <t>1.4.7.15</t>
+  </si>
+  <si>
+    <t>1.4.7.16</t>
+  </si>
+  <si>
+    <t>1.4.7.19</t>
+  </si>
+  <si>
+    <t>1.4.7.20</t>
   </si>
   <si>
     <t>1.4.8.1</t>
@@ -364,6 +364,9 @@
     <t>1.4.9.3</t>
   </si>
   <si>
+    <t>1.4.9.4</t>
+  </si>
+  <si>
     <t>1.4.10.2</t>
   </si>
   <si>
@@ -523,21 +526,21 @@
     <t>1.4.18.3</t>
   </si>
   <si>
-    <t>1.11.1</t>
-  </si>
-  <si>
-    <t>1.11.2</t>
+    <t>1.12.1</t>
+  </si>
+  <si>
+    <t>1.12.2</t>
   </si>
   <si>
     <t>93085573</t>
   </si>
   <si>
+    <t>93085735</t>
+  </si>
+  <si>
     <t>93084280</t>
   </si>
   <si>
-    <t>93085735</t>
-  </si>
-  <si>
     <t>93087475</t>
   </si>
   <si>
@@ -559,12 +562,18 @@
     <t>93066773</t>
   </si>
   <si>
+    <t>93077720</t>
+  </si>
+  <si>
     <t>93083114</t>
   </si>
   <si>
     <t>93082661</t>
   </si>
   <si>
+    <t>93083385</t>
+  </si>
+  <si>
     <t>93082634</t>
   </si>
   <si>
@@ -607,9 +616,6 @@
     <t>93083112</t>
   </si>
   <si>
-    <t>93077720</t>
-  </si>
-  <si>
     <t>93083111</t>
   </si>
   <si>
@@ -691,9 +697,6 @@
     <t>93082603-93085312</t>
   </si>
   <si>
-    <t>93083385</t>
-  </si>
-  <si>
     <t>93085122</t>
   </si>
   <si>
@@ -814,12 +817,12 @@
     <t>تعويض لاينرهاي معيوب</t>
   </si>
   <si>
+    <t>تعويض هيدروكوپلينگ</t>
+  </si>
+  <si>
     <t>تعويض لاينرهاي سائيده شده روي درب بازديد</t>
   </si>
   <si>
-    <t>تعويض هيدروكوپلينگ</t>
-  </si>
-  <si>
     <t>تعويض شاول فرسوده</t>
   </si>
   <si>
@@ -841,18 +844,33 @@
     <t>تعويض پین و بیرینگ اصلی بوم</t>
   </si>
   <si>
+    <t>تعويض زنجيرو ريل اپرون فيدر و اسكراپر</t>
+  </si>
+  <si>
     <t>باز کردن هند ریل و فضا سازی برای هوک جرثقیل</t>
   </si>
   <si>
     <t>باز کردن لوله خنک کننده</t>
   </si>
   <si>
-    <t>باز کردن کاور شمال و جنوب</t>
+    <t>باز کردن کاور جنوب</t>
   </si>
   <si>
     <t>آزاد کردن زنجیر هد شفت</t>
   </si>
   <si>
+    <t>بیرون آورد اسپراکت به روش القایی</t>
+  </si>
+  <si>
+    <t>باز کردن اسلیو و هوزینگ و بیرینگ</t>
+  </si>
+  <si>
+    <t>نصب بیرینگ ، هوزینگ و اسلیو و جا زدن لابیرنت و اسپراکت بزرگ</t>
+  </si>
+  <si>
+    <t>باز کردن کاور شمال</t>
+  </si>
+  <si>
     <t>چك و بررسي لابيرنت كپ هاي ساپورت رولر شفت هاي مسير رفت در صورت نياز تنظيم و نصب مجدد</t>
   </si>
   <si>
@@ -871,7 +889,7 @@
     <t>باز کردن گریت پلیت</t>
   </si>
   <si>
-    <t>و مهار زنجیرH  نصب</t>
+    <t xml:space="preserve">  و مهار زنجیرH  نصب</t>
   </si>
   <si>
     <t>برشکاری و آزاد کردن زنجیر تراولینگ</t>
@@ -913,7 +931,7 @@
     <t>چك و بررسي استپر پليت ها و سيل كستينگ هاي دو سمت زنجير تراولينگ و تعويض در صورت سايش</t>
   </si>
   <si>
-    <t>چك و بررسي استريپرها و سايد استريپرها و  نصب آن</t>
+    <t xml:space="preserve">  چك و بررسي استريپرها و سايد استريپرها و  نصب آن</t>
   </si>
   <si>
     <t>چك و بررسي بخش دیگر از قطعات زنجير تراولينگ</t>
@@ -931,9 +949,6 @@
     <t>چك و بررسي تمامي پرشر پليت هاي تراولينگ و تعويض در صورت سایش</t>
   </si>
   <si>
-    <t>تعويض زنجيرو ريل اپرون فيدر و اسكراپر</t>
-  </si>
-  <si>
     <t>H تخریب نسوز جهت نصب</t>
   </si>
   <si>
@@ -1027,15 +1042,6 @@
     <t>تنظيمات عرضي كولينگ و تعويض تراست رولر ها</t>
   </si>
   <si>
-    <t>بیرون آورد اسپراکت به روش القایی</t>
-  </si>
-  <si>
-    <t>باز کردن اسلیو و هوزینگ و بیرینگ</t>
-  </si>
-  <si>
-    <t>نصب بیرینگ ، هوزینگ و اسلیو و جا زدن لابیرنت و اسپراکت بزرگ</t>
-  </si>
-  <si>
     <t>تعويض لاينرها</t>
   </si>
   <si>
@@ -1066,7 +1072,7 @@
     <t>دمونتاژ جهت مهندسی معکوس و تعمیرات اساسی آن</t>
   </si>
   <si>
-    <t>مونتاژ پس از مهندسی معکوس</t>
+    <t xml:space="preserve"> مونتاژ پس از مهندسی معکوس</t>
   </si>
   <si>
     <t>تعويض عايق هاي كيسينگ</t>
@@ -1096,7 +1102,7 @@
     <t>باز کردن دستگاه پرداخت</t>
   </si>
   <si>
-    <t>و نصب گاید پلیتها  EP تعويض ورتيكالهاي صفحات توزيع گاز ورودي به</t>
+    <t xml:space="preserve"> و نصب گاید پلیتها  EP تعويض ورتيكالهاي صفحات توزيع گاز ورودي به</t>
   </si>
   <si>
     <t>تعويض چكش اتاقك جنوبي</t>
@@ -1522,7 +1528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO132"/>
+  <dimension ref="A1:AO133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1661,10 +1667,10 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -1786,37 +1792,37 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2">
-        <v>44736</v>
+        <v>44734</v>
       </c>
       <c r="H3" s="2">
-        <v>44736</v>
+        <v>44734</v>
       </c>
       <c r="I3">
-        <v>0.008</v>
+        <v>0.094</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.008</v>
+        <v>0.094</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.094</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1911,37 +1917,37 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2">
-        <v>44734</v>
+        <v>44736</v>
       </c>
       <c r="H4" s="2">
-        <v>44734</v>
+        <v>44736</v>
       </c>
       <c r="I4">
-        <v>0.094</v>
+        <v>0.008</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0.094</v>
+        <v>0.008</v>
       </c>
       <c r="L4">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2036,10 +2042,10 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F5">
         <v>12</v>
@@ -2161,10 +2167,10 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -2286,10 +2292,10 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F7">
         <v>420</v>
@@ -2411,10 +2417,10 @@
         <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F8">
         <v>48</v>
@@ -2536,10 +2542,10 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -2661,10 +2667,10 @@
         <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F10">
         <v>48</v>
@@ -2780,16 +2786,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="C11" t="s">
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F11">
         <v>80</v>
@@ -2911,10 +2917,10 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F12">
         <v>2400</v>
@@ -2926,97 +2932,97 @@
         <v>44761</v>
       </c>
       <c r="I12">
-        <v>4.515</v>
+        <v>4.513</v>
       </c>
       <c r="J12" s="3">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="L12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="M12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="N12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="O12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="P12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="Q12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="R12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="S12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="T12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="U12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="V12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="W12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="X12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="Y12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="Z12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AA12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AB12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AC12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AD12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AE12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AF12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AG12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AH12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AI12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AJ12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AK12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AL12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AM12">
-        <v>0.16125</v>
+        <v>0.1611785714285714</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3030,58 +3036,58 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>706</v>
+        <v>580</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F13">
-        <v>32</v>
+        <v>2000</v>
       </c>
       <c r="G13" s="2">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="H13" s="2">
-        <v>44735</v>
+        <v>44741</v>
       </c>
       <c r="I13">
-        <v>0.06</v>
+        <v>3.761</v>
       </c>
       <c r="J13" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>0.06</v>
+        <v>0.470125</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.470125</v>
       </c>
       <c r="M13">
-        <v>0.06</v>
+        <v>0.470125</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.470125</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.470125</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.470125</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.470125</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.470125</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.470125</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -3155,19 +3161,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2">
         <v>44735</v>
@@ -3176,19 +3182,19 @@
         <v>44735</v>
       </c>
       <c r="I14">
-        <v>0.008</v>
+        <v>0.06</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0.008</v>
+        <v>0.06</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.008</v>
+        <v>0.06</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3280,19 +3286,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C15" t="s">
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2">
         <v>44735</v>
@@ -3301,19 +3307,19 @@
         <v>44735</v>
       </c>
       <c r="I15">
-        <v>0.045</v>
+        <v>0.008</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0.045</v>
+        <v>0.008</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.045</v>
+        <v>0.008</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3405,16 +3411,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F16">
         <v>24</v>
@@ -3530,7 +3536,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -3539,55 +3545,55 @@
         <v>183</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F17">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="G17" s="2">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="H17" s="2">
-        <v>44743</v>
+        <v>44735</v>
       </c>
       <c r="I17">
-        <v>0.508</v>
+        <v>0.045</v>
       </c>
       <c r="J17" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0.0635</v>
+        <v>0.045</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="N17">
-        <v>0.0635</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0635</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.0635</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.0635</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0.0635</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0635</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>0.0635</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.0635</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -3655,34 +3661,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F18">
-        <v>480</v>
+        <v>144</v>
       </c>
       <c r="G18" s="2">
         <v>44736</v>
       </c>
       <c r="H18" s="2">
-        <v>44737</v>
+        <v>44736</v>
       </c>
       <c r="I18">
-        <v>0.903</v>
+        <v>0.271</v>
       </c>
       <c r="J18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0.4515</v>
+        <v>0.271</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -3691,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4515</v>
+        <v>0.271</v>
       </c>
       <c r="O18">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3780,7 +3786,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
@@ -3789,25 +3795,25 @@
         <v>185</v>
       </c>
       <c r="E19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F19">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2">
-        <v>44736</v>
+        <v>44737</v>
       </c>
       <c r="H19" s="2">
-        <v>44741</v>
+        <v>44737</v>
       </c>
       <c r="I19">
-        <v>0.271</v>
+        <v>0.135</v>
       </c>
       <c r="J19" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0.04516666666666667</v>
+        <v>0.135</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3816,22 +3822,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.04516666666666667</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.04516666666666667</v>
+        <v>0.135</v>
       </c>
       <c r="P19">
-        <v>0.04516666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.04516666666666667</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>0.04516666666666667</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>0.04516666666666667</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3905,34 +3911,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F20">
-        <v>640</v>
+        <v>324</v>
       </c>
       <c r="G20" s="2">
-        <v>44737</v>
+        <v>44746</v>
       </c>
       <c r="H20" s="2">
-        <v>44744</v>
+        <v>44747.25</v>
       </c>
       <c r="I20">
-        <v>1.204</v>
+        <v>0.609</v>
       </c>
       <c r="J20" s="3">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="K20">
-        <v>0.1505</v>
+        <v>0.3045</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -3944,37 +3950,37 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.1505</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.1505</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.1505</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0.1505</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>0.1505</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0.1505</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>0.1505</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>0.1505</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>0.3045</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>0.3045</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -4030,52 +4036,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F21">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="G21" s="2">
-        <v>44737</v>
+        <v>44735</v>
       </c>
       <c r="H21" s="2">
-        <v>44739</v>
+        <v>44735</v>
       </c>
       <c r="I21">
-        <v>0.376</v>
+        <v>0.045</v>
       </c>
       <c r="J21" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0.1253333333333333</v>
+        <v>0.045</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.1253333333333333</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.1253333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.1253333333333333</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -4155,34 +4161,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F22">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G22" s="2">
-        <v>44738</v>
+        <v>44736</v>
       </c>
       <c r="H22" s="2">
-        <v>44738</v>
+        <v>44743</v>
       </c>
       <c r="I22">
-        <v>0.451</v>
+        <v>0.508</v>
       </c>
       <c r="J22" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>0.451</v>
+        <v>0.0635</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -4191,28 +4197,28 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.0635</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.0635</v>
       </c>
       <c r="P22">
-        <v>0.451</v>
+        <v>0.0635</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.0635</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.0635</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>0.0635</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.0635</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>0.0635</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -4280,34 +4286,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F23">
-        <v>84</v>
+        <v>480</v>
       </c>
       <c r="G23" s="2">
-        <v>44739</v>
+        <v>44736</v>
       </c>
       <c r="H23" s="2">
-        <v>44739</v>
+        <v>44737</v>
       </c>
       <c r="I23">
-        <v>0.158</v>
+        <v>0.903</v>
       </c>
       <c r="J23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>0.158</v>
+        <v>0.4515</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4316,16 +4322,16 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4515</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.4515</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -4405,7 +4411,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
@@ -4414,25 +4420,25 @@
         <v>188</v>
       </c>
       <c r="E24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F24">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G24" s="2">
-        <v>44739</v>
+        <v>44736</v>
       </c>
       <c r="H24" s="2">
-        <v>44739</v>
+        <v>44741</v>
       </c>
       <c r="I24">
-        <v>0.301</v>
+        <v>0.271</v>
       </c>
       <c r="J24" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K24">
-        <v>0.301</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -4441,22 +4447,22 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="Q24">
-        <v>0.301</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>0.04516666666666667</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -4530,7 +4536,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -4539,25 +4545,25 @@
         <v>189</v>
       </c>
       <c r="E25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F25">
-        <v>240</v>
+        <v>640</v>
       </c>
       <c r="G25" s="2">
-        <v>44740</v>
+        <v>44737</v>
       </c>
       <c r="H25" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="I25">
-        <v>0.451</v>
+        <v>1.203</v>
       </c>
       <c r="J25" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>0.07516666666666667</v>
+        <v>0.150375</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -4569,31 +4575,31 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.150375</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.150375</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.150375</v>
       </c>
       <c r="R25">
-        <v>0.07516666666666667</v>
+        <v>0.150375</v>
       </c>
       <c r="S25">
-        <v>0.07516666666666667</v>
+        <v>0.150375</v>
       </c>
       <c r="T25">
-        <v>0.07516666666666667</v>
+        <v>0.150375</v>
       </c>
       <c r="U25">
-        <v>0.07516666666666667</v>
+        <v>0.150375</v>
       </c>
       <c r="V25">
-        <v>0.07516666666666667</v>
+        <v>0.150375</v>
       </c>
       <c r="W25">
-        <v>0.07516666666666667</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -4655,7 +4661,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C26" t="s">
         <v>64</v>
@@ -4664,25 +4670,25 @@
         <v>190</v>
       </c>
       <c r="E26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F26">
-        <v>960</v>
+        <v>200</v>
       </c>
       <c r="G26" s="2">
-        <v>44741</v>
+        <v>44737</v>
       </c>
       <c r="H26" s="2">
-        <v>44750</v>
+        <v>44739</v>
       </c>
       <c r="I26">
-        <v>1.806</v>
+        <v>0.376</v>
       </c>
       <c r="J26" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>0.1806</v>
+        <v>0.1253333333333333</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4694,46 +4700,46 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.1253333333333333</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.1253333333333333</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.1253333333333333</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -4780,7 +4786,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
@@ -4789,25 +4795,25 @@
         <v>191</v>
       </c>
       <c r="E27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F27">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G27" s="2">
-        <v>44742</v>
+        <v>44738</v>
       </c>
       <c r="H27" s="2">
-        <v>44747</v>
+        <v>44738</v>
       </c>
       <c r="I27">
-        <v>0.47</v>
+        <v>0.451</v>
       </c>
       <c r="J27" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>0.07833333333333332</v>
+        <v>0.451</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4822,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>0.451</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -4834,22 +4840,22 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>0.07833333333333332</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>0.07833333333333332</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0.07833333333333332</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0.07833333333333332</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>0.07833333333333332</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.07833333333333332</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -4905,34 +4911,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C28" t="s">
         <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F28">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="G28" s="2">
-        <v>44748</v>
+        <v>44739</v>
       </c>
       <c r="H28" s="2">
-        <v>44748</v>
+        <v>44739</v>
       </c>
       <c r="I28">
-        <v>0.226</v>
+        <v>0.158</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>0.226</v>
+        <v>0.158</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -4950,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -4977,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.226</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -5030,34 +5036,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F29">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="G29" s="2">
-        <v>44749</v>
+        <v>44739</v>
       </c>
       <c r="H29" s="2">
-        <v>44749</v>
+        <v>44739</v>
       </c>
       <c r="I29">
-        <v>0.113</v>
+        <v>0.301</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0.113</v>
+        <v>0.301</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -5075,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>0.301</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -5105,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.113</v>
+        <v>0</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -5155,34 +5161,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F30">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="G30" s="2">
-        <v>44749</v>
+        <v>44740</v>
       </c>
       <c r="H30" s="2">
-        <v>44749</v>
+        <v>44745</v>
       </c>
       <c r="I30">
-        <v>0.075</v>
+        <v>0.451</v>
       </c>
       <c r="J30" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K30">
-        <v>0.075</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -5203,22 +5209,22 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -5230,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -5280,34 +5286,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C31" t="s">
         <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>960</v>
       </c>
       <c r="G31" s="2">
-        <v>44749</v>
+        <v>44742</v>
       </c>
       <c r="H31" s="2">
-        <v>44749</v>
+        <v>44751</v>
       </c>
       <c r="I31">
-        <v>0.03</v>
+        <v>1.805</v>
       </c>
       <c r="J31" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>0.03</v>
+        <v>0.1805</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -5334,34 +5340,34 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>0.1805</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>0.1805</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>0.1805</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>0.1805</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>0.1805</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>0.1805</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>0.1805</v>
       </c>
       <c r="AA31">
-        <v>0.03</v>
+        <v>0.1805</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>0.1805</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>0.1805</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -5405,34 +5411,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C32" t="s">
         <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F32">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="G32" s="2">
-        <v>44749</v>
+        <v>44742</v>
       </c>
       <c r="H32" s="2">
-        <v>44749</v>
+        <v>44747</v>
       </c>
       <c r="I32">
-        <v>0.068</v>
+        <v>0.47</v>
       </c>
       <c r="J32" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>0.068</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -5459,28 +5465,28 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>0.07833333333333332</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -5530,34 +5536,34 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C33" t="s">
         <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="G33" s="2">
-        <v>44750</v>
+        <v>44748</v>
       </c>
       <c r="H33" s="2">
-        <v>44750</v>
+        <v>44748</v>
       </c>
       <c r="I33">
-        <v>0.011</v>
+        <v>0.226</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>0.011</v>
+        <v>0.226</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -5602,13 +5608,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.226</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -5655,34 +5661,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E34" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F34">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="G34" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="H34" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="I34">
-        <v>0.451</v>
+        <v>0.113</v>
       </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34">
-        <v>0.451</v>
+        <v>0.113</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5730,10 +5736,10 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="AB34">
-        <v>0.451</v>
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>0</v>
@@ -5780,34 +5786,34 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C35" t="s">
         <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E35" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F35">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="G35" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="H35" s="2">
-        <v>44750</v>
+        <v>44749</v>
       </c>
       <c r="I35">
-        <v>0.271</v>
+        <v>0.075</v>
       </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0.271</v>
+        <v>0.075</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5855,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="AB35">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="AC35">
         <v>0</v>
@@ -5905,34 +5911,34 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C36" t="s">
         <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F36">
-        <v>400</v>
+        <v>16</v>
       </c>
       <c r="G36" s="2">
-        <v>44751</v>
+        <v>44749</v>
       </c>
       <c r="H36" s="2">
-        <v>44754</v>
+        <v>44749</v>
       </c>
       <c r="I36">
-        <v>0.752</v>
+        <v>0.03</v>
       </c>
       <c r="J36" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>0.188</v>
+        <v>0.03</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -5980,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AB36">
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AG36">
         <v>0</v>
@@ -6030,34 +6036,34 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C37" t="s">
         <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F37">
-        <v>960</v>
+        <v>36</v>
       </c>
       <c r="G37" s="2">
-        <v>44751</v>
+        <v>44749</v>
       </c>
       <c r="H37" s="2">
-        <v>44754</v>
+        <v>44749</v>
       </c>
       <c r="I37">
-        <v>1.806</v>
+        <v>0.068</v>
       </c>
       <c r="J37" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0.4515</v>
+        <v>0.068</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -6105,22 +6111,22 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="AB37">
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -6155,34 +6161,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C38" t="s">
         <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F38">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="G38" s="2">
-        <v>44751</v>
+        <v>44750</v>
       </c>
       <c r="H38" s="2">
-        <v>44756</v>
+        <v>44750</v>
       </c>
       <c r="I38">
-        <v>0.451</v>
+        <v>0.011</v>
       </c>
       <c r="J38" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>0.07516666666666667</v>
+        <v>0.011</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -6233,25 +6239,25 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="AC38">
-        <v>0.07516666666666667</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>0.07516666666666667</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>0.07516666666666667</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>0.07516666666666667</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>0.07516666666666667</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>0.07516666666666667</v>
+        <v>0</v>
       </c>
       <c r="AI38">
         <v>0</v>
@@ -6280,34 +6286,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C39" t="s">
         <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E39" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F39">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="G39" s="2">
-        <v>44758</v>
+        <v>44750</v>
       </c>
       <c r="H39" s="2">
-        <v>44760</v>
+        <v>44750</v>
       </c>
       <c r="I39">
-        <v>0.602</v>
+        <v>0.451</v>
       </c>
       <c r="J39" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>0.2006666666666667</v>
+        <v>0.451</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -6358,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.451</v>
       </c>
       <c r="AC39">
         <v>0</v>
@@ -6382,13 +6388,13 @@
         <v>0</v>
       </c>
       <c r="AJ39">
-        <v>0.2006666666666667</v>
+        <v>0</v>
       </c>
       <c r="AK39">
-        <v>0.2006666666666667</v>
+        <v>0</v>
       </c>
       <c r="AL39">
-        <v>0.2006666666666667</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>0</v>
@@ -6405,34 +6411,34 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C40" t="s">
         <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E40" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F40">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="G40" s="2">
-        <v>44758</v>
+        <v>44750</v>
       </c>
       <c r="H40" s="2">
-        <v>44759</v>
+        <v>44750</v>
       </c>
       <c r="I40">
-        <v>0.451</v>
+        <v>0.271</v>
       </c>
       <c r="J40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>0.2255</v>
+        <v>0.271</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -6483,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.271</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -6507,10 +6513,10 @@
         <v>0</v>
       </c>
       <c r="AJ40">
-        <v>0.2255</v>
+        <v>0</v>
       </c>
       <c r="AK40">
-        <v>0.2255</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>0</v>
@@ -6530,7 +6536,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C41" t="s">
         <v>79</v>
@@ -6539,25 +6545,25 @@
         <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F41">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="G41" s="2">
-        <v>44759</v>
+        <v>44751</v>
       </c>
       <c r="H41" s="2">
-        <v>44760</v>
+        <v>44754</v>
       </c>
       <c r="I41">
-        <v>0.903</v>
+        <v>0.752</v>
       </c>
       <c r="J41" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K41">
-        <v>0.4515</v>
+        <v>0.188</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -6611,16 +6617,16 @@
         <v>0</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AG41">
         <v>0</v>
@@ -6635,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="AK41">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AL41">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -6655,34 +6661,34 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C42" t="s">
         <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F42">
-        <v>500</v>
+        <v>960</v>
       </c>
       <c r="G42" s="2">
-        <v>44761</v>
+        <v>44751</v>
       </c>
       <c r="H42" s="2">
-        <v>44763.5</v>
+        <v>44754</v>
       </c>
       <c r="I42">
-        <v>0.9409999999999999</v>
+        <v>1.805</v>
       </c>
       <c r="J42" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K42">
-        <v>0.3136666666666666</v>
+        <v>0.45125</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6736,16 +6742,16 @@
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>0.45125</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>0.45125</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>0.45125</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>0.45125</v>
       </c>
       <c r="AG42">
         <v>0</v>
@@ -6766,13 +6772,13 @@
         <v>0</v>
       </c>
       <c r="AM42">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
       <c r="AN42">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>0.3136666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:41">
@@ -6780,61 +6786,61 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C43" t="s">
         <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F43">
-        <v>2000</v>
+        <v>240</v>
       </c>
       <c r="G43" s="2">
-        <v>44735</v>
+        <v>44751</v>
       </c>
       <c r="H43" s="2">
-        <v>44742</v>
+        <v>44756</v>
       </c>
       <c r="I43">
-        <v>3.762</v>
+        <v>0.451</v>
       </c>
       <c r="J43" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K43">
-        <v>0.47025</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -6861,22 +6867,22 @@
         <v>0</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>0.07516666666666667</v>
       </c>
       <c r="AI43">
         <v>0</v>
@@ -6905,34 +6911,34 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C44" t="s">
         <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c r="G44" s="2">
-        <v>44738</v>
+        <v>44758</v>
       </c>
       <c r="H44" s="2">
-        <v>44738</v>
+        <v>44760</v>
       </c>
       <c r="I44">
-        <v>0.045</v>
+        <v>0.602</v>
       </c>
       <c r="J44" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K44">
-        <v>0.045</v>
+        <v>0.2006666666666667</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -6947,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -7007,13 +7013,13 @@
         <v>0</v>
       </c>
       <c r="AJ44">
-        <v>0</v>
+        <v>0.2006666666666667</v>
       </c>
       <c r="AK44">
-        <v>0</v>
+        <v>0.2006666666666667</v>
       </c>
       <c r="AL44">
-        <v>0</v>
+        <v>0.2006666666666667</v>
       </c>
       <c r="AM44">
         <v>0</v>
@@ -7030,34 +7036,34 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C45" t="s">
         <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E45" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F45">
-        <v>2400</v>
+        <v>240</v>
       </c>
       <c r="G45" s="2">
-        <v>44736</v>
+        <v>44758</v>
       </c>
       <c r="H45" s="2">
-        <v>44740</v>
+        <v>44759</v>
       </c>
       <c r="I45">
-        <v>4.515</v>
+        <v>0.451</v>
       </c>
       <c r="J45" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K45">
-        <v>0.9029999999999999</v>
+        <v>0.2255</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -7066,19 +7072,19 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0.9029999999999999</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>0.9029999999999999</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>0.9029999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>0.9029999999999999</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>0.9029999999999999</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -7132,10 +7138,10 @@
         <v>0</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>0.2255</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>0.2255</v>
       </c>
       <c r="AL45">
         <v>0</v>
@@ -7155,34 +7161,34 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C46" t="s">
         <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F46">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="G46" s="2">
-        <v>44741</v>
+        <v>44759</v>
       </c>
       <c r="H46" s="2">
-        <v>44741</v>
+        <v>44760</v>
       </c>
       <c r="I46">
-        <v>0.226</v>
+        <v>0.903</v>
       </c>
       <c r="J46" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46">
-        <v>0.226</v>
+        <v>0.4515</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -7206,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>0.226</v>
+        <v>0</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -7260,10 +7266,10 @@
         <v>0</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>0.4515</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>0.4515</v>
       </c>
       <c r="AM46">
         <v>0</v>
@@ -7280,34 +7286,34 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C47" t="s">
         <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F47">
-        <v>6260</v>
+        <v>500</v>
       </c>
       <c r="G47" s="2">
-        <v>44742</v>
+        <v>44761</v>
       </c>
       <c r="H47" s="2">
-        <v>44754.04166666666</v>
+        <v>44763.5</v>
       </c>
       <c r="I47">
-        <v>11.776</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J47" s="3">
-        <v>13.04166666666667</v>
+        <v>3.5</v>
       </c>
       <c r="K47">
-        <v>0.9058461538461539</v>
+        <v>0.3133333333333333</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -7334,43 +7340,43 @@
         <v>0</v>
       </c>
       <c r="T47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="X47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="Y47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="AB47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="AD47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="AE47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="AF47">
-        <v>0.9058461538461539</v>
+        <v>0</v>
       </c>
       <c r="AG47">
         <v>0</v>
@@ -7391,13 +7397,13 @@
         <v>0</v>
       </c>
       <c r="AM47">
-        <v>0</v>
+        <v>0.3133333333333333</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>0.3133333333333333</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.3133333333333333</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -7405,34 +7411,34 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C48" t="s">
         <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F48">
-        <v>960</v>
+        <v>24</v>
       </c>
       <c r="G48" s="2">
-        <v>44755</v>
+        <v>44738</v>
       </c>
       <c r="H48" s="2">
-        <v>44756</v>
+        <v>44738</v>
       </c>
       <c r="I48">
-        <v>1.806</v>
+        <v>0.045</v>
       </c>
       <c r="J48" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>0.903</v>
+        <v>0.045</v>
       </c>
       <c r="L48">
         <v>0</v>
@@ -7447,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -7498,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="AG48">
-        <v>0.903</v>
+        <v>0</v>
       </c>
       <c r="AH48">
-        <v>0.903</v>
+        <v>0</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -7536,28 +7542,28 @@
         <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F49">
-        <v>480</v>
+        <v>2400</v>
       </c>
       <c r="G49" s="2">
-        <v>44757</v>
+        <v>44736</v>
       </c>
       <c r="H49" s="2">
-        <v>44758</v>
+        <v>44740</v>
       </c>
       <c r="I49">
-        <v>0.903</v>
+        <v>4.513</v>
       </c>
       <c r="J49" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K49">
-        <v>0.4515</v>
+        <v>0.9026</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -7566,19 +7572,19 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>0.9026</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.9026</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>0.9026</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>0.9026</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>0.9026</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -7629,10 +7635,10 @@
         <v>0</v>
       </c>
       <c r="AI49">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AJ49">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AK49">
         <v>0</v>
@@ -7661,28 +7667,28 @@
         <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E50" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F50">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="G50" s="2">
-        <v>44759</v>
+        <v>44741</v>
       </c>
       <c r="H50" s="2">
-        <v>44759</v>
+        <v>44741</v>
       </c>
       <c r="I50">
-        <v>0.09</v>
+        <v>0.226</v>
       </c>
       <c r="J50" s="3">
         <v>1</v>
       </c>
       <c r="K50">
-        <v>0.09</v>
+        <v>0.226</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -7706,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>0.226</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -7760,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="AK50">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>0</v>
@@ -7786,28 +7792,28 @@
         <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E51" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F51">
-        <v>270</v>
+        <v>6260</v>
       </c>
       <c r="G51" s="2">
-        <v>44760</v>
+        <v>44742</v>
       </c>
       <c r="H51" s="2">
-        <v>44760.375</v>
+        <v>44754.04166666666</v>
       </c>
       <c r="I51">
-        <v>0.508</v>
+        <v>11.771</v>
       </c>
       <c r="J51" s="3">
-        <v>1.375</v>
+        <v>13.04166666666667</v>
       </c>
       <c r="K51">
-        <v>0.508</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -7834,43 +7840,43 @@
         <v>0</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>0.9054615384615385</v>
       </c>
       <c r="AG51">
         <v>0</v>
@@ -7888,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>0.508</v>
+        <v>0</v>
       </c>
       <c r="AM51">
         <v>0</v>
@@ -7905,34 +7911,34 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C52" t="s">
         <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E52" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F52">
-        <v>36</v>
+        <v>960</v>
       </c>
       <c r="G52" s="2">
-        <v>44741</v>
+        <v>44755</v>
       </c>
       <c r="H52" s="2">
-        <v>44741</v>
+        <v>44756</v>
       </c>
       <c r="I52">
-        <v>0.068</v>
+        <v>1.805</v>
       </c>
       <c r="J52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52">
-        <v>0.068</v>
+        <v>0.9025</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -7956,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -7998,10 +8004,10 @@
         <v>0</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>0.9025</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>0.9025</v>
       </c>
       <c r="AI52">
         <v>0</v>
@@ -8030,34 +8036,34 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C53" t="s">
         <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E53" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F53">
-        <v>24</v>
+        <v>480</v>
       </c>
       <c r="G53" s="2">
-        <v>44741</v>
+        <v>44757</v>
       </c>
       <c r="H53" s="2">
-        <v>44741</v>
+        <v>44758</v>
       </c>
       <c r="I53">
-        <v>0.045</v>
+        <v>0.903</v>
       </c>
       <c r="J53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53">
-        <v>0.045</v>
+        <v>0.4515</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -8081,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -8129,10 +8135,10 @@
         <v>0</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>0.4515</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>0.4515</v>
       </c>
       <c r="AK53">
         <v>0</v>
@@ -8155,34 +8161,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="C54" t="s">
         <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F54">
-        <v>960</v>
+        <v>48</v>
       </c>
       <c r="G54" s="2">
-        <v>44750</v>
+        <v>44759</v>
       </c>
       <c r="H54" s="2">
-        <v>44753</v>
+        <v>44759</v>
       </c>
       <c r="I54">
-        <v>1.806</v>
+        <v>0.09</v>
       </c>
       <c r="J54" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>0.4515</v>
+        <v>0.09</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -8233,16 +8239,16 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AD54">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AE54">
-        <v>0.4515</v>
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -8260,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="AK54">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AL54">
         <v>0</v>
@@ -8280,34 +8286,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="C55" t="s">
         <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F55">
-        <v>432</v>
+        <v>270</v>
       </c>
       <c r="G55" s="2">
-        <v>44750</v>
+        <v>44760</v>
       </c>
       <c r="H55" s="2">
-        <v>44752</v>
+        <v>44760.375</v>
       </c>
       <c r="I55">
-        <v>0.8129999999999999</v>
+        <v>0.508</v>
       </c>
       <c r="J55" s="3">
-        <v>3</v>
+        <v>1.375</v>
       </c>
       <c r="K55">
-        <v>0.271</v>
+        <v>0.508</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -8358,13 +8364,13 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="AD55">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="AE55">
         <v>0</v>
@@ -8388,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>0</v>
+        <v>0.508</v>
       </c>
       <c r="AM55">
         <v>0</v>
@@ -8405,34 +8411,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C56" t="s">
         <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E56" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F56">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="G56" s="2">
-        <v>44754</v>
+        <v>44741</v>
       </c>
       <c r="H56" s="2">
-        <v>44755</v>
+        <v>44741</v>
       </c>
       <c r="I56">
-        <v>0.8129999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="J56" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>0.4065</v>
+        <v>0.068</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -8456,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -8495,10 +8501,10 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>0.4065</v>
+        <v>0</v>
       </c>
       <c r="AG56">
-        <v>0.4065</v>
+        <v>0</v>
       </c>
       <c r="AH56">
         <v>0</v>
@@ -8530,34 +8536,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="C57" t="s">
         <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E57" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F57">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="G57" s="2">
-        <v>44736</v>
+        <v>44741</v>
       </c>
       <c r="H57" s="2">
-        <v>44739</v>
+        <v>44741</v>
       </c>
       <c r="I57">
-        <v>0.9409999999999999</v>
+        <v>0.045</v>
       </c>
       <c r="J57" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K57">
-        <v>0.23525</v>
+        <v>0.045</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -8566,22 +8572,22 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="P57">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>0</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -8655,34 +8661,34 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C58" t="s">
         <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E58" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F58">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="G58" s="2">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="H58" s="2">
-        <v>44743</v>
+        <v>44753</v>
       </c>
       <c r="I58">
-        <v>1.881</v>
+        <v>1.805</v>
       </c>
       <c r="J58" s="3">
         <v>4</v>
       </c>
       <c r="K58">
-        <v>0.47025</v>
+        <v>0.45125</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -8703,16 +8709,16 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>0.47025</v>
+        <v>0</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -8733,16 +8739,16 @@
         <v>0</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>0.45125</v>
       </c>
       <c r="AC58">
-        <v>0</v>
+        <v>0.45125</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>0.45125</v>
       </c>
       <c r="AE58">
-        <v>0</v>
+        <v>0.45125</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -8780,34 +8786,34 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C59" t="s">
         <v>97</v>
       </c>
       <c r="D59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E59" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F59">
-        <v>500</v>
+        <v>432</v>
       </c>
       <c r="G59" s="2">
-        <v>44740</v>
+        <v>44750</v>
       </c>
       <c r="H59" s="2">
-        <v>44741</v>
+        <v>44752</v>
       </c>
       <c r="I59">
-        <v>0.9409999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J59" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K59">
-        <v>0.4705</v>
+        <v>0.2706666666666667</v>
       </c>
       <c r="L59">
         <v>0</v>
@@ -8828,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>0.4705</v>
+        <v>0</v>
       </c>
       <c r="S59">
-        <v>0.4705</v>
+        <v>0</v>
       </c>
       <c r="T59">
         <v>0</v>
@@ -8858,13 +8864,13 @@
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>0.2706666666666667</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>0.2706666666666667</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>0.2706666666666667</v>
       </c>
       <c r="AE59">
         <v>0</v>
@@ -8905,34 +8911,34 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C60" t="s">
         <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F60">
-        <v>96</v>
+        <v>432</v>
       </c>
       <c r="G60" s="2">
-        <v>44741</v>
+        <v>44754</v>
       </c>
       <c r="H60" s="2">
-        <v>44741</v>
+        <v>44755</v>
       </c>
       <c r="I60">
-        <v>0.181</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J60" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60">
-        <v>0.181</v>
+        <v>0.406</v>
       </c>
       <c r="L60">
         <v>0</v>
@@ -8956,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -8995,10 +9001,10 @@
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>0</v>
+        <v>0.406</v>
       </c>
       <c r="AG60">
-        <v>0</v>
+        <v>0.406</v>
       </c>
       <c r="AH60">
         <v>0</v>
@@ -9030,34 +9036,34 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C61" t="s">
         <v>99</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F61">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G61" s="2">
-        <v>44743</v>
+        <v>44736</v>
       </c>
       <c r="H61" s="2">
-        <v>44743</v>
+        <v>44739</v>
       </c>
       <c r="I61">
-        <v>0.948</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J61" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K61">
-        <v>0.948</v>
+        <v>0.235</v>
       </c>
       <c r="L61">
         <v>0</v>
@@ -9066,16 +9072,16 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -9087,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="U61">
-        <v>0.948</v>
+        <v>0</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -9155,34 +9161,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C62" t="s">
         <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E62" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F62">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G62" s="2">
-        <v>44746</v>
+        <v>44740</v>
       </c>
       <c r="H62" s="2">
-        <v>44749.16666666666</v>
+        <v>44743</v>
       </c>
       <c r="I62">
-        <v>0.9409999999999999</v>
+        <v>1.88</v>
       </c>
       <c r="J62" s="3">
-        <v>4.166666666666667</v>
+        <v>4</v>
       </c>
       <c r="K62">
-        <v>0.23525</v>
+        <v>0.47</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -9203,16 +9209,16 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -9221,16 +9227,16 @@
         <v>0</v>
       </c>
       <c r="X62">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="Z62">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -9280,34 +9286,34 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C63" t="s">
         <v>101</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E63" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F63">
         <v>500</v>
       </c>
       <c r="G63" s="2">
-        <v>44750</v>
+        <v>44740</v>
       </c>
       <c r="H63" s="2">
-        <v>44750</v>
+        <v>44741</v>
       </c>
       <c r="I63">
-        <v>0.9409999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63">
-        <v>0.9409999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="L63">
         <v>0</v>
@@ -9328,10 +9334,10 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -9358,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="AB63">
-        <v>0.9409999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC63">
         <v>0</v>
@@ -9405,34 +9411,34 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C64" t="s">
         <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E64" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F64">
-        <v>840</v>
+        <v>96</v>
       </c>
       <c r="G64" s="2">
-        <v>44751</v>
+        <v>44741</v>
       </c>
       <c r="H64" s="2">
-        <v>44757</v>
+        <v>44741</v>
       </c>
       <c r="I64">
-        <v>1.58</v>
+        <v>0.181</v>
       </c>
       <c r="J64" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>0.2257142857142857</v>
+        <v>0.181</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -9456,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -9486,25 +9492,25 @@
         <v>0</v>
       </c>
       <c r="AC64">
-        <v>0.2257142857142857</v>
+        <v>0</v>
       </c>
       <c r="AD64">
-        <v>0.2257142857142857</v>
+        <v>0</v>
       </c>
       <c r="AE64">
-        <v>0.2257142857142857</v>
+        <v>0</v>
       </c>
       <c r="AF64">
-        <v>0.2257142857142857</v>
+        <v>0</v>
       </c>
       <c r="AG64">
-        <v>0.2257142857142857</v>
+        <v>0</v>
       </c>
       <c r="AH64">
-        <v>0.2257142857142857</v>
+        <v>0</v>
       </c>
       <c r="AI64">
-        <v>0.2257142857142857</v>
+        <v>0</v>
       </c>
       <c r="AJ64">
         <v>0</v>
@@ -9530,34 +9536,34 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C65" t="s">
         <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F65">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="G65" s="2">
-        <v>44758</v>
+        <v>44743</v>
       </c>
       <c r="H65" s="2">
-        <v>44761</v>
+        <v>44743</v>
       </c>
       <c r="I65">
-        <v>0.752</v>
+        <v>0.948</v>
       </c>
       <c r="J65" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>0.188</v>
+        <v>0.948</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -9587,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>0.948</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -9632,16 +9638,16 @@
         <v>0</v>
       </c>
       <c r="AJ65">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AK65">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AL65">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AM65">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AN65">
         <v>0</v>
@@ -9655,31 +9661,31 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C66" t="s">
         <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E66" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F66">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G66" s="2">
-        <v>44759</v>
+        <v>44746</v>
       </c>
       <c r="H66" s="2">
-        <v>44760</v>
+        <v>44749.16666666666</v>
       </c>
       <c r="I66">
-        <v>0.47</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J66" s="3">
-        <v>2</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="K66">
         <v>0.235</v>
@@ -9721,16 +9727,16 @@
         <v>0</v>
       </c>
       <c r="X66">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -9760,10 +9766,10 @@
         <v>0</v>
       </c>
       <c r="AK66">
-        <v>0.235</v>
+        <v>0</v>
       </c>
       <c r="AL66">
-        <v>0.235</v>
+        <v>0</v>
       </c>
       <c r="AM66">
         <v>0</v>
@@ -9780,34 +9786,34 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C67" t="s">
         <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E67" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F67">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="G67" s="2">
-        <v>44736</v>
+        <v>44750</v>
       </c>
       <c r="H67" s="2">
-        <v>44736</v>
+        <v>44750</v>
       </c>
       <c r="I67">
-        <v>0.023</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J67" s="3">
         <v>1</v>
       </c>
       <c r="K67">
-        <v>0.023</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L67">
         <v>0</v>
@@ -9816,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -9858,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC67">
         <v>0</v>
@@ -9905,34 +9911,34 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C68" t="s">
         <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E68" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F68">
-        <v>12</v>
+        <v>840</v>
       </c>
       <c r="G68" s="2">
-        <v>44758</v>
+        <v>44751</v>
       </c>
       <c r="H68" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="I68">
-        <v>0.023</v>
+        <v>1.58</v>
       </c>
       <c r="J68" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K68">
-        <v>0.023</v>
+        <v>0.2257142857142857</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -9986,28 +9992,28 @@
         <v>0</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>0.2257142857142857</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>0.2257142857142857</v>
       </c>
       <c r="AE68">
-        <v>0</v>
+        <v>0.2257142857142857</v>
       </c>
       <c r="AF68">
-        <v>0</v>
+        <v>0.2257142857142857</v>
       </c>
       <c r="AG68">
-        <v>0</v>
+        <v>0.2257142857142857</v>
       </c>
       <c r="AH68">
-        <v>0</v>
+        <v>0.2257142857142857</v>
       </c>
       <c r="AI68">
-        <v>0</v>
+        <v>0.2257142857142857</v>
       </c>
       <c r="AJ68">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="AK68">
         <v>0</v>
@@ -10036,28 +10042,28 @@
         <v>107</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E69" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F69">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="G69" s="2">
-        <v>44736</v>
+        <v>44758</v>
       </c>
       <c r="H69" s="2">
-        <v>44736</v>
+        <v>44761</v>
       </c>
       <c r="I69">
-        <v>0.056</v>
+        <v>0.752</v>
       </c>
       <c r="J69" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K69">
-        <v>0.056</v>
+        <v>0.188</v>
       </c>
       <c r="L69">
         <v>0</v>
@@ -10066,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -10132,16 +10138,16 @@
         <v>0</v>
       </c>
       <c r="AJ69">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AK69">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AL69">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AM69">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AN69">
         <v>0</v>
@@ -10164,25 +10170,25 @@
         <v>220</v>
       </c>
       <c r="E70" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F70">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="G70" s="2">
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="H70" s="2">
-        <v>44758</v>
+        <v>44760</v>
       </c>
       <c r="I70">
-        <v>0.056</v>
+        <v>0.47</v>
       </c>
       <c r="J70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K70">
-        <v>0.056</v>
+        <v>0.235</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -10257,13 +10263,13 @@
         <v>0</v>
       </c>
       <c r="AJ70">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="AK70">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="AL70">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="AM70">
         <v>0</v>
@@ -10289,25 +10295,25 @@
         <v>221</v>
       </c>
       <c r="E71" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F71">
-        <v>5000</v>
+        <v>12</v>
       </c>
       <c r="G71" s="2">
         <v>44736</v>
       </c>
       <c r="H71" s="2">
-        <v>44753.5</v>
+        <v>44736</v>
       </c>
       <c r="I71">
-        <v>9.406000000000001</v>
+        <v>0.023</v>
       </c>
       <c r="J71" s="3">
-        <v>18.5</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>0.5225555555555556</v>
+        <v>0.023</v>
       </c>
       <c r="L71">
         <v>0</v>
@@ -10316,58 +10322,58 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>0.5225555555555556</v>
+        <v>0.023</v>
       </c>
       <c r="O71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="S71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="T71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="X71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="AB71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="AD71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="AE71">
-        <v>0.5225555555555556</v>
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -10411,28 +10417,28 @@
         <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E72" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F72">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2">
-        <v>44746</v>
+        <v>44758</v>
       </c>
       <c r="H72" s="2">
-        <v>44750</v>
+        <v>44758</v>
       </c>
       <c r="I72">
-        <v>0.752</v>
+        <v>0.023</v>
       </c>
       <c r="J72" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>0.1504</v>
+        <v>0.023</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -10471,19 +10477,19 @@
         <v>0</v>
       </c>
       <c r="X72">
-        <v>0.1504</v>
+        <v>0</v>
       </c>
       <c r="Y72">
-        <v>0.1504</v>
+        <v>0</v>
       </c>
       <c r="Z72">
-        <v>0.1504</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.1504</v>
+        <v>0</v>
       </c>
       <c r="AB72">
-        <v>0.1504</v>
+        <v>0</v>
       </c>
       <c r="AC72">
         <v>0</v>
@@ -10507,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="AJ72">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="AK72">
         <v>0</v>
@@ -10536,28 +10542,28 @@
         <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E73" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F73">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="G73" s="2">
-        <v>44750</v>
+        <v>44736</v>
       </c>
       <c r="H73" s="2">
-        <v>44753</v>
+        <v>44736</v>
       </c>
       <c r="I73">
-        <v>0.752</v>
+        <v>0.056</v>
       </c>
       <c r="J73" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>0.188</v>
+        <v>0.056</v>
       </c>
       <c r="L73">
         <v>0</v>
@@ -10566,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -10608,16 +10614,16 @@
         <v>0</v>
       </c>
       <c r="AB73">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AD73">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AE73">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -10661,28 +10667,28 @@
         <v>112</v>
       </c>
       <c r="D74" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E74" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F74">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G74" s="2">
-        <v>44754</v>
+        <v>44758</v>
       </c>
       <c r="H74" s="2">
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="I74">
-        <v>0.9409999999999999</v>
+        <v>0.056</v>
       </c>
       <c r="J74" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>0.23525</v>
+        <v>0.056</v>
       </c>
       <c r="L74">
         <v>0</v>
@@ -10745,19 +10751,19 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="AG74">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="AH74">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="AI74">
-        <v>0.23525</v>
+        <v>0</v>
       </c>
       <c r="AJ74">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="AK74">
         <v>0</v>
@@ -10786,28 +10792,28 @@
         <v>113</v>
       </c>
       <c r="D75" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E75" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F75">
-        <v>144</v>
+        <v>5000</v>
       </c>
       <c r="G75" s="2">
         <v>44736</v>
       </c>
       <c r="H75" s="2">
-        <v>44736</v>
+        <v>44753.5</v>
       </c>
       <c r="I75">
-        <v>0.271</v>
+        <v>9.401999999999999</v>
       </c>
       <c r="J75" s="3">
-        <v>1</v>
+        <v>18.5</v>
       </c>
       <c r="K75">
-        <v>0.271</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -10816,58 +10822,58 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>0.271</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="W75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="AA75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="AC75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="AD75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="AE75">
-        <v>0</v>
+        <v>0.5223333333333333</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -10911,28 +10917,28 @@
         <v>114</v>
       </c>
       <c r="D76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E76" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F76">
-        <v>72</v>
+        <v>400</v>
       </c>
       <c r="G76" s="2">
-        <v>44737</v>
+        <v>44746</v>
       </c>
       <c r="H76" s="2">
-        <v>44737</v>
+        <v>44750</v>
       </c>
       <c r="I76">
-        <v>0.135</v>
+        <v>0.752</v>
       </c>
       <c r="J76" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K76">
-        <v>0.135</v>
+        <v>0.1504</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -10944,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="O76">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -10971,19 +10977,19 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>0</v>
+        <v>0.1504</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>0.1504</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>0.1504</v>
       </c>
       <c r="AA76">
-        <v>0</v>
+        <v>0.1504</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>0.1504</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -11039,25 +11045,25 @@
         <v>225</v>
       </c>
       <c r="E77" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F77">
-        <v>324</v>
+        <v>400</v>
       </c>
       <c r="G77" s="2">
-        <v>44746</v>
+        <v>44750</v>
       </c>
       <c r="H77" s="2">
-        <v>44747.25</v>
+        <v>44753</v>
       </c>
       <c r="I77">
-        <v>0.61</v>
+        <v>0.752</v>
       </c>
       <c r="J77" s="3">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="K77">
-        <v>0.305</v>
+        <v>0.188</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -11096,10 +11102,10 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="Y77">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -11108,16 +11114,16 @@
         <v>0</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AD77">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AE77">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -11155,7 +11161,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C78" t="s">
         <v>116</v>
@@ -11164,25 +11170,25 @@
         <v>226</v>
       </c>
       <c r="E78" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F78">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G78" s="2">
-        <v>44737</v>
+        <v>44754</v>
       </c>
       <c r="H78" s="2">
-        <v>44742</v>
+        <v>44757</v>
       </c>
       <c r="I78">
-        <v>1.505</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J78" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K78">
-        <v>0.2508333333333333</v>
+        <v>0.235</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -11194,22 +11200,22 @@
         <v>0</v>
       </c>
       <c r="O78">
-        <v>0.2508333333333333</v>
+        <v>0</v>
       </c>
       <c r="P78">
-        <v>0.2508333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>0.2508333333333333</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>0.2508333333333333</v>
+        <v>0</v>
       </c>
       <c r="S78">
-        <v>0.2508333333333333</v>
+        <v>0</v>
       </c>
       <c r="T78">
-        <v>0.2508333333333333</v>
+        <v>0</v>
       </c>
       <c r="U78">
         <v>0</v>
@@ -11245,16 +11251,16 @@
         <v>0</v>
       </c>
       <c r="AF78">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="AG78">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="AH78">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="AI78">
-        <v>0</v>
+        <v>0.235</v>
       </c>
       <c r="AJ78">
         <v>0</v>
@@ -11280,7 +11286,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C79" t="s">
         <v>117</v>
@@ -11289,10 +11295,10 @@
         <v>227</v>
       </c>
       <c r="E79" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F79">
-        <v>1080</v>
+        <v>800</v>
       </c>
       <c r="G79" s="2">
         <v>44737</v>
@@ -11301,13 +11307,13 @@
         <v>44742</v>
       </c>
       <c r="I79">
-        <v>2.032</v>
+        <v>1.504</v>
       </c>
       <c r="J79" s="3">
         <v>6</v>
       </c>
       <c r="K79">
-        <v>0.3386666666666667</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -11319,22 +11325,22 @@
         <v>0</v>
       </c>
       <c r="O79">
-        <v>0.3386666666666667</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="P79">
-        <v>0.3386666666666667</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="Q79">
-        <v>0.3386666666666667</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="R79">
-        <v>0.3386666666666667</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="S79">
-        <v>0.3386666666666667</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="T79">
-        <v>0.3386666666666667</v>
+        <v>0.2506666666666666</v>
       </c>
       <c r="U79">
         <v>0</v>
@@ -11405,7 +11411,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C80" t="s">
         <v>118</v>
@@ -11414,25 +11420,25 @@
         <v>228</v>
       </c>
       <c r="E80" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F80">
         <v>1080</v>
       </c>
       <c r="G80" s="2">
-        <v>44754</v>
+        <v>44737</v>
       </c>
       <c r="H80" s="2">
-        <v>44759</v>
+        <v>44742</v>
       </c>
       <c r="I80">
-        <v>2.032</v>
+        <v>2.031</v>
       </c>
       <c r="J80" s="3">
         <v>6</v>
       </c>
       <c r="K80">
-        <v>0.3386666666666667</v>
+        <v>0.3385</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -11444,22 +11450,22 @@
         <v>0</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.3385</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>0.3385</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>0.3385</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>0.3385</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>0.3385</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>0.3385</v>
       </c>
       <c r="U80">
         <v>0</v>
@@ -11495,22 +11501,22 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <v>0.3386666666666667</v>
+        <v>0</v>
       </c>
       <c r="AG80">
-        <v>0.3386666666666667</v>
+        <v>0</v>
       </c>
       <c r="AH80">
-        <v>0.3386666666666667</v>
+        <v>0</v>
       </c>
       <c r="AI80">
-        <v>0.3386666666666667</v>
+        <v>0</v>
       </c>
       <c r="AJ80">
-        <v>0.3386666666666667</v>
+        <v>0</v>
       </c>
       <c r="AK80">
-        <v>0.3386666666666667</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <v>0</v>
@@ -11539,25 +11545,25 @@
         <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F81">
-        <v>432</v>
+        <v>1080</v>
       </c>
       <c r="G81" s="2">
-        <v>44758</v>
+        <v>44754</v>
       </c>
       <c r="H81" s="2">
         <v>44759</v>
       </c>
       <c r="I81">
-        <v>0.8129999999999999</v>
+        <v>2.031</v>
       </c>
       <c r="J81" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K81">
-        <v>0.4065</v>
+        <v>0.3385</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -11620,22 +11626,22 @@
         <v>0</v>
       </c>
       <c r="AF81">
-        <v>0</v>
+        <v>0.3385</v>
       </c>
       <c r="AG81">
-        <v>0</v>
+        <v>0.3385</v>
       </c>
       <c r="AH81">
-        <v>0</v>
+        <v>0.3385</v>
       </c>
       <c r="AI81">
-        <v>0</v>
+        <v>0.3385</v>
       </c>
       <c r="AJ81">
-        <v>0.4065</v>
+        <v>0.3385</v>
       </c>
       <c r="AK81">
-        <v>0.4065</v>
+        <v>0.3385</v>
       </c>
       <c r="AL81">
         <v>0</v>
@@ -11664,25 +11670,25 @@
         <v>230</v>
       </c>
       <c r="E82" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F82">
-        <v>800</v>
+        <v>432</v>
       </c>
       <c r="G82" s="2">
-        <v>44744</v>
+        <v>44758</v>
       </c>
       <c r="H82" s="2">
-        <v>44751</v>
+        <v>44759</v>
       </c>
       <c r="I82">
-        <v>1.505</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J82" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K82">
-        <v>0.188125</v>
+        <v>0.406</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -11715,28 +11721,28 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>0.188125</v>
+        <v>0</v>
       </c>
       <c r="W82">
-        <v>0.188125</v>
+        <v>0</v>
       </c>
       <c r="X82">
-        <v>0.188125</v>
+        <v>0</v>
       </c>
       <c r="Y82">
-        <v>0.188125</v>
+        <v>0</v>
       </c>
       <c r="Z82">
-        <v>0.188125</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.188125</v>
+        <v>0</v>
       </c>
       <c r="AB82">
-        <v>0.188125</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>0.188125</v>
+        <v>0</v>
       </c>
       <c r="AD82">
         <v>0</v>
@@ -11757,10 +11763,10 @@
         <v>0</v>
       </c>
       <c r="AJ82">
-        <v>0</v>
+        <v>0.406</v>
       </c>
       <c r="AK82">
-        <v>0</v>
+        <v>0.406</v>
       </c>
       <c r="AL82">
         <v>0</v>
@@ -11789,25 +11795,25 @@
         <v>231</v>
       </c>
       <c r="E83" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F83">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="G83" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="H83" s="2">
-        <v>44747</v>
+        <v>44751</v>
       </c>
       <c r="I83">
-        <v>0.113</v>
+        <v>1.504</v>
       </c>
       <c r="J83" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K83">
-        <v>0.03766666666666667</v>
+        <v>0.188</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -11840,28 +11846,28 @@
         <v>0</v>
       </c>
       <c r="V83">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="W83">
-        <v>0.03766666666666667</v>
+        <v>0.188</v>
       </c>
       <c r="X83">
-        <v>0.03766666666666667</v>
+        <v>0.188</v>
       </c>
       <c r="Y83">
-        <v>0.03766666666666667</v>
+        <v>0.188</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AC83">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="AD83">
         <v>0</v>
@@ -11914,25 +11920,25 @@
         <v>232</v>
       </c>
       <c r="E84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F84">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G84" s="2">
-        <v>44748</v>
+        <v>44745</v>
       </c>
       <c r="H84" s="2">
-        <v>44748</v>
+        <v>44747</v>
       </c>
       <c r="I84">
-        <v>0.068</v>
+        <v>0.113</v>
       </c>
       <c r="J84" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K84">
-        <v>0.068</v>
+        <v>0.03766666666666667</v>
       </c>
       <c r="L84">
         <v>0</v>
@@ -11968,16 +11974,16 @@
         <v>0</v>
       </c>
       <c r="W84">
-        <v>0</v>
+        <v>0.03766666666666667</v>
       </c>
       <c r="X84">
-        <v>0</v>
+        <v>0.03766666666666667</v>
       </c>
       <c r="Y84">
-        <v>0</v>
+        <v>0.03766666666666667</v>
       </c>
       <c r="Z84">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="AA84">
         <v>0</v>
@@ -12039,25 +12045,25 @@
         <v>233</v>
       </c>
       <c r="E85" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F85">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G85" s="2">
-        <v>44751</v>
+        <v>44748</v>
       </c>
       <c r="H85" s="2">
-        <v>44751</v>
+        <v>44748</v>
       </c>
       <c r="I85">
-        <v>0.06</v>
+        <v>0.068</v>
       </c>
       <c r="J85" s="3">
         <v>1</v>
       </c>
       <c r="K85">
-        <v>0.06</v>
+        <v>0.068</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -12102,7 +12108,7 @@
         <v>0</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="AA85">
         <v>0</v>
@@ -12111,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="AC85">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AD85">
         <v>0</v>
@@ -12164,25 +12170,25 @@
         <v>234</v>
       </c>
       <c r="E86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F86">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G86" s="2">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="H86" s="2">
-        <v>44752</v>
+        <v>44751</v>
       </c>
       <c r="I86">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="J86" s="3">
         <v>1</v>
       </c>
       <c r="K86">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -12236,10 +12242,10 @@
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AD86">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AE86">
         <v>0</v>
@@ -12289,25 +12295,25 @@
         <v>235</v>
       </c>
       <c r="E87" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F87">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G87" s="2">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="H87" s="2">
-        <v>44753</v>
+        <v>44752</v>
       </c>
       <c r="I87">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="J87" s="3">
         <v>1</v>
       </c>
       <c r="K87">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -12364,10 +12370,10 @@
         <v>0</v>
       </c>
       <c r="AD87">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AE87">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -12414,25 +12420,25 @@
         <v>236</v>
       </c>
       <c r="E88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F88">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="G88" s="2">
-        <v>44737</v>
+        <v>44753</v>
       </c>
       <c r="H88" s="2">
-        <v>44740</v>
+        <v>44753</v>
       </c>
       <c r="I88">
-        <v>0.271</v>
+        <v>0.034</v>
       </c>
       <c r="J88" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>0.06775</v>
+        <v>0.034</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -12444,16 +12450,16 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <v>0.06775</v>
+        <v>0</v>
       </c>
       <c r="P88">
-        <v>0.06775</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>0.06775</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>0.06775</v>
+        <v>0</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -12492,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="AE88">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -12536,28 +12542,28 @@
         <v>127</v>
       </c>
       <c r="D89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E89" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F89">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="G89" s="2">
-        <v>44748</v>
+        <v>44737</v>
       </c>
       <c r="H89" s="2">
-        <v>44749</v>
+        <v>44740</v>
       </c>
       <c r="I89">
-        <v>0.135</v>
+        <v>0.271</v>
       </c>
       <c r="J89" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K89">
-        <v>0.0675</v>
+        <v>0.06775</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -12569,16 +12575,16 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.06775</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>0.06775</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>0.06775</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>0.06775</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -12602,10 +12608,10 @@
         <v>0</v>
       </c>
       <c r="Z89">
-        <v>0.0675</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.0675</v>
+        <v>0</v>
       </c>
       <c r="AB89">
         <v>0</v>
@@ -12664,25 +12670,25 @@
         <v>237</v>
       </c>
       <c r="E90" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F90">
-        <v>900</v>
+        <v>72</v>
       </c>
       <c r="G90" s="2">
-        <v>44751</v>
+        <v>44748</v>
       </c>
       <c r="H90" s="2">
-        <v>44758</v>
+        <v>44749</v>
       </c>
       <c r="I90">
-        <v>1.693</v>
+        <v>0.135</v>
       </c>
       <c r="J90" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K90">
-        <v>0.211625</v>
+        <v>0.0675</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -12727,37 +12733,37 @@
         <v>0</v>
       </c>
       <c r="Z90">
-        <v>0</v>
+        <v>0.0675</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>0.0675</v>
       </c>
       <c r="AB90">
         <v>0</v>
       </c>
       <c r="AC90">
-        <v>0.211625</v>
+        <v>0</v>
       </c>
       <c r="AD90">
-        <v>0.211625</v>
+        <v>0</v>
       </c>
       <c r="AE90">
-        <v>0.211625</v>
+        <v>0</v>
       </c>
       <c r="AF90">
-        <v>0.211625</v>
+        <v>0</v>
       </c>
       <c r="AG90">
-        <v>0.211625</v>
+        <v>0</v>
       </c>
       <c r="AH90">
-        <v>0.211625</v>
+        <v>0</v>
       </c>
       <c r="AI90">
-        <v>0.211625</v>
+        <v>0</v>
       </c>
       <c r="AJ90">
-        <v>0.211625</v>
+        <v>0</v>
       </c>
       <c r="AK90">
         <v>0</v>
@@ -12789,25 +12795,25 @@
         <v>238</v>
       </c>
       <c r="E91" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F91">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G91" s="2">
         <v>44751</v>
       </c>
       <c r="H91" s="2">
-        <v>44754</v>
+        <v>44758</v>
       </c>
       <c r="I91">
-        <v>1.129</v>
+        <v>1.692</v>
       </c>
       <c r="J91" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K91">
-        <v>0.28225</v>
+        <v>0.2115</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -12861,28 +12867,28 @@
         <v>0</v>
       </c>
       <c r="AC91">
-        <v>0.28225</v>
+        <v>0.2115</v>
       </c>
       <c r="AD91">
-        <v>0.28225</v>
+        <v>0.2115</v>
       </c>
       <c r="AE91">
-        <v>0.28225</v>
+        <v>0.2115</v>
       </c>
       <c r="AF91">
-        <v>0.28225</v>
+        <v>0.2115</v>
       </c>
       <c r="AG91">
-        <v>0</v>
+        <v>0.2115</v>
       </c>
       <c r="AH91">
-        <v>0</v>
+        <v>0.2115</v>
       </c>
       <c r="AI91">
-        <v>0</v>
+        <v>0.2115</v>
       </c>
       <c r="AJ91">
-        <v>0</v>
+        <v>0.2115</v>
       </c>
       <c r="AK91">
         <v>0</v>
@@ -12914,25 +12920,25 @@
         <v>239</v>
       </c>
       <c r="E92" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F92">
-        <v>12</v>
+        <v>600</v>
       </c>
       <c r="G92" s="2">
-        <v>44762</v>
+        <v>44751</v>
       </c>
       <c r="H92" s="2">
-        <v>44762</v>
+        <v>44754</v>
       </c>
       <c r="I92">
-        <v>0.023</v>
+        <v>1.128</v>
       </c>
       <c r="J92" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K92">
-        <v>0.023</v>
+        <v>0.282</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -12986,16 +12992,16 @@
         <v>0</v>
       </c>
       <c r="AC92">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="AD92">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="AE92">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="AF92">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="AG92">
         <v>0</v>
@@ -13019,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="AN92">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="AO92">
         <v>0</v>
@@ -13039,25 +13045,25 @@
         <v>240</v>
       </c>
       <c r="E93" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F93">
-        <v>648</v>
+        <v>12</v>
       </c>
       <c r="G93" s="2">
-        <v>44740</v>
+        <v>44762</v>
       </c>
       <c r="H93" s="2">
-        <v>44743</v>
+        <v>44762</v>
       </c>
       <c r="I93">
-        <v>1.219</v>
+        <v>0.023</v>
       </c>
       <c r="J93" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>0.30475</v>
+        <v>0.023</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -13078,16 +13084,16 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>0.30475</v>
+        <v>0</v>
       </c>
       <c r="S93">
-        <v>0.30475</v>
+        <v>0</v>
       </c>
       <c r="T93">
-        <v>0.30475</v>
+        <v>0</v>
       </c>
       <c r="U93">
-        <v>0.30475</v>
+        <v>0</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -13144,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="AN93">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="AO93">
         <v>0</v>
@@ -13161,28 +13167,28 @@
         <v>132</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E94" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F94">
-        <v>972</v>
+        <v>648</v>
       </c>
       <c r="G94" s="2">
-        <v>44751</v>
+        <v>44740</v>
       </c>
       <c r="H94" s="2">
-        <v>44752</v>
+        <v>44743</v>
       </c>
       <c r="I94">
-        <v>1.829</v>
+        <v>1.218</v>
       </c>
       <c r="J94" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K94">
-        <v>0.9145</v>
+        <v>0.3045</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -13203,16 +13209,16 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>0</v>
+        <v>0.3045</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>0.3045</v>
       </c>
       <c r="T94">
-        <v>0</v>
+        <v>0.3045</v>
       </c>
       <c r="U94">
-        <v>0</v>
+        <v>0.3045</v>
       </c>
       <c r="V94">
         <v>0</v>
@@ -13236,10 +13242,10 @@
         <v>0</v>
       </c>
       <c r="AC94">
-        <v>0.9145</v>
+        <v>0</v>
       </c>
       <c r="AD94">
-        <v>0.9145</v>
+        <v>0</v>
       </c>
       <c r="AE94">
         <v>0</v>
@@ -13289,25 +13295,25 @@
         <v>241</v>
       </c>
       <c r="E95" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F95">
-        <v>600</v>
+        <v>972</v>
       </c>
       <c r="G95" s="2">
-        <v>44754</v>
+        <v>44751</v>
       </c>
       <c r="H95" s="2">
-        <v>44761</v>
+        <v>44752</v>
       </c>
       <c r="I95">
-        <v>1.129</v>
+        <v>1.828</v>
       </c>
       <c r="J95" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K95">
-        <v>0.141125</v>
+        <v>0.914</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -13361,37 +13367,37 @@
         <v>0</v>
       </c>
       <c r="AC95">
-        <v>0</v>
+        <v>0.914</v>
       </c>
       <c r="AD95">
-        <v>0</v>
+        <v>0.914</v>
       </c>
       <c r="AE95">
         <v>0</v>
       </c>
       <c r="AF95">
-        <v>0.141125</v>
+        <v>0</v>
       </c>
       <c r="AG95">
-        <v>0.141125</v>
+        <v>0</v>
       </c>
       <c r="AH95">
-        <v>0.141125</v>
+        <v>0</v>
       </c>
       <c r="AI95">
-        <v>0.141125</v>
+        <v>0</v>
       </c>
       <c r="AJ95">
-        <v>0.141125</v>
+        <v>0</v>
       </c>
       <c r="AK95">
-        <v>0.141125</v>
+        <v>0</v>
       </c>
       <c r="AL95">
-        <v>0.141125</v>
+        <v>0</v>
       </c>
       <c r="AM95">
-        <v>0.141125</v>
+        <v>0</v>
       </c>
       <c r="AN95">
         <v>0</v>
@@ -13414,7 +13420,7 @@
         <v>242</v>
       </c>
       <c r="E96" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F96">
         <v>600</v>
@@ -13423,16 +13429,16 @@
         <v>44754</v>
       </c>
       <c r="H96" s="2">
-        <v>44757</v>
+        <v>44761</v>
       </c>
       <c r="I96">
-        <v>1.129</v>
+        <v>1.128</v>
       </c>
       <c r="J96" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K96">
-        <v>0.28225</v>
+        <v>0.141</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -13495,28 +13501,28 @@
         <v>0</v>
       </c>
       <c r="AF96">
-        <v>0.28225</v>
+        <v>0.141</v>
       </c>
       <c r="AG96">
-        <v>0.28225</v>
+        <v>0.141</v>
       </c>
       <c r="AH96">
-        <v>0.28225</v>
+        <v>0.141</v>
       </c>
       <c r="AI96">
-        <v>0.28225</v>
+        <v>0.141</v>
       </c>
       <c r="AJ96">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="AK96">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="AL96">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="AM96">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="AN96">
         <v>0</v>
@@ -13539,25 +13545,25 @@
         <v>243</v>
       </c>
       <c r="E97" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F97">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="G97" s="2">
-        <v>44762</v>
+        <v>44754</v>
       </c>
       <c r="H97" s="2">
-        <v>44762</v>
+        <v>44757</v>
       </c>
       <c r="I97">
-        <v>0.034</v>
+        <v>1.128</v>
       </c>
       <c r="J97" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K97">
-        <v>0.034</v>
+        <v>0.282</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -13620,16 +13626,16 @@
         <v>0</v>
       </c>
       <c r="AF97">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="AG97">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="AH97">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="AI97">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="AJ97">
         <v>0</v>
@@ -13644,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="AN97">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="AO97">
         <v>0</v>
@@ -13655,7 +13661,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C98" t="s">
         <v>136</v>
@@ -13667,22 +13673,22 @@
         <v>355</v>
       </c>
       <c r="F98">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="G98" s="2">
-        <v>44738</v>
+        <v>44762</v>
       </c>
       <c r="H98" s="2">
-        <v>44739</v>
+        <v>44762</v>
       </c>
       <c r="I98">
-        <v>0.248</v>
+        <v>0.034</v>
       </c>
       <c r="J98" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>0.124</v>
+        <v>0.034</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -13697,10 +13703,10 @@
         <v>0</v>
       </c>
       <c r="P98">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -13769,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="AN98">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="AO98">
         <v>0</v>
@@ -13786,19 +13792,19 @@
         <v>137</v>
       </c>
       <c r="D99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E99" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F99">
         <v>132</v>
       </c>
       <c r="G99" s="2">
-        <v>44740</v>
+        <v>44738</v>
       </c>
       <c r="H99" s="2">
-        <v>44741</v>
+        <v>44739</v>
       </c>
       <c r="I99">
         <v>0.248</v>
@@ -13822,16 +13828,16 @@
         <v>0</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="R99">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="S99">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="T99">
         <v>0</v>
@@ -13911,19 +13917,19 @@
         <v>138</v>
       </c>
       <c r="D100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E100" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F100">
         <v>132</v>
       </c>
       <c r="G100" s="2">
-        <v>44748</v>
+        <v>44740</v>
       </c>
       <c r="H100" s="2">
-        <v>44749</v>
+        <v>44741</v>
       </c>
       <c r="I100">
         <v>0.248</v>
@@ -13953,10 +13959,10 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="S100">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="T100">
         <v>0</v>
@@ -13977,10 +13983,10 @@
         <v>0</v>
       </c>
       <c r="Z100">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="AB100">
         <v>0</v>
@@ -14036,19 +14042,19 @@
         <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E101" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F101">
         <v>132</v>
       </c>
       <c r="G101" s="2">
-        <v>44744</v>
+        <v>44748</v>
       </c>
       <c r="H101" s="2">
-        <v>44745</v>
+        <v>44749</v>
       </c>
       <c r="I101">
         <v>0.248</v>
@@ -14090,22 +14096,22 @@
         <v>0</v>
       </c>
       <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
         <v>0.124</v>
       </c>
-      <c r="W101">
+      <c r="AA101">
         <v>0.124</v>
-      </c>
-      <c r="X101">
-        <v>0</v>
-      </c>
-      <c r="Y101">
-        <v>0</v>
-      </c>
-      <c r="Z101">
-        <v>0</v>
-      </c>
-      <c r="AA101">
-        <v>0</v>
       </c>
       <c r="AB101">
         <v>0</v>
@@ -14161,19 +14167,19 @@
         <v>140</v>
       </c>
       <c r="D102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E102" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F102">
         <v>132</v>
       </c>
       <c r="G102" s="2">
-        <v>44746</v>
+        <v>44744</v>
       </c>
       <c r="H102" s="2">
-        <v>44747</v>
+        <v>44745</v>
       </c>
       <c r="I102">
         <v>0.248</v>
@@ -14215,16 +14221,16 @@
         <v>0</v>
       </c>
       <c r="V102">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="W102">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="X102">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="Y102">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="Z102">
         <v>0</v>
@@ -14286,28 +14292,28 @@
         <v>141</v>
       </c>
       <c r="D103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E103" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F103">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="G103" s="2">
-        <v>44742</v>
+        <v>44746</v>
       </c>
       <c r="H103" s="2">
-        <v>44743</v>
+        <v>44747</v>
       </c>
       <c r="I103">
-        <v>0.497</v>
+        <v>0.248</v>
       </c>
       <c r="J103" s="3">
         <v>2</v>
       </c>
       <c r="K103">
-        <v>0.2485</v>
+        <v>0.124</v>
       </c>
       <c r="L103">
         <v>0</v>
@@ -14334,10 +14340,10 @@
         <v>0</v>
       </c>
       <c r="T103">
-        <v>0.2485</v>
+        <v>0</v>
       </c>
       <c r="U103">
-        <v>0.2485</v>
+        <v>0</v>
       </c>
       <c r="V103">
         <v>0</v>
@@ -14346,10 +14352,10 @@
         <v>0</v>
       </c>
       <c r="X103">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="Y103">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="Z103">
         <v>0</v>
@@ -14414,25 +14420,25 @@
         <v>245</v>
       </c>
       <c r="E104" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F104">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="G104" s="2">
-        <v>44755</v>
+        <v>44742</v>
       </c>
       <c r="H104" s="2">
-        <v>44757</v>
+        <v>44743</v>
       </c>
       <c r="I104">
-        <v>0.226</v>
+        <v>0.496</v>
       </c>
       <c r="J104" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K104">
-        <v>0.07533333333333334</v>
+        <v>0.248</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -14459,10 +14465,10 @@
         <v>0</v>
       </c>
       <c r="T104">
-        <v>0</v>
+        <v>0.248</v>
       </c>
       <c r="U104">
-        <v>0</v>
+        <v>0.248</v>
       </c>
       <c r="V104">
         <v>0</v>
@@ -14498,13 +14504,13 @@
         <v>0</v>
       </c>
       <c r="AG104">
-        <v>0.07533333333333334</v>
+        <v>0</v>
       </c>
       <c r="AH104">
-        <v>0.07533333333333334</v>
+        <v>0</v>
       </c>
       <c r="AI104">
-        <v>0.07533333333333334</v>
+        <v>0</v>
       </c>
       <c r="AJ104">
         <v>0</v>
@@ -14530,34 +14536,34 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C105" t="s">
         <v>143</v>
       </c>
       <c r="D105" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="E105" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F105">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="G105" s="2">
-        <v>44738</v>
+        <v>44755</v>
       </c>
       <c r="H105" s="2">
-        <v>44738</v>
+        <v>44757</v>
       </c>
       <c r="I105">
-        <v>0.03</v>
+        <v>0.226</v>
       </c>
       <c r="J105" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K105">
-        <v>0.03</v>
+        <v>0.07533333333333334</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -14572,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="P105">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Q105">
         <v>0</v>
@@ -14623,13 +14629,13 @@
         <v>0</v>
       </c>
       <c r="AG105">
-        <v>0</v>
+        <v>0.07533333333333334</v>
       </c>
       <c r="AH105">
-        <v>0</v>
+        <v>0.07533333333333334</v>
       </c>
       <c r="AI105">
-        <v>0</v>
+        <v>0.07533333333333334</v>
       </c>
       <c r="AJ105">
         <v>0</v>
@@ -14661,28 +14667,28 @@
         <v>144</v>
       </c>
       <c r="D106" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="E106" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F106">
-        <v>432</v>
+        <v>16</v>
       </c>
       <c r="G106" s="2">
-        <v>44740</v>
+        <v>44738</v>
       </c>
       <c r="H106" s="2">
-        <v>44744</v>
+        <v>44738</v>
       </c>
       <c r="I106">
-        <v>0.8129999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="J106" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K106">
-        <v>0.1626</v>
+        <v>0.03</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -14697,25 +14703,25 @@
         <v>0</v>
       </c>
       <c r="P106">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
-        <v>0.1626</v>
+        <v>0</v>
       </c>
       <c r="S106">
-        <v>0.1626</v>
+        <v>0</v>
       </c>
       <c r="T106">
-        <v>0.1626</v>
+        <v>0</v>
       </c>
       <c r="U106">
-        <v>0.1626</v>
+        <v>0</v>
       </c>
       <c r="V106">
-        <v>0.1626</v>
+        <v>0</v>
       </c>
       <c r="W106">
         <v>0</v>
@@ -14786,28 +14792,28 @@
         <v>145</v>
       </c>
       <c r="D107" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="E107" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F107">
-        <v>72</v>
+        <v>432</v>
       </c>
       <c r="G107" s="2">
-        <v>44745</v>
+        <v>44740</v>
       </c>
       <c r="H107" s="2">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="I107">
-        <v>0.135</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J107" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K107">
-        <v>0.135</v>
+        <v>0.1624</v>
       </c>
       <c r="L107">
         <v>0</v>
@@ -14828,22 +14834,22 @@
         <v>0</v>
       </c>
       <c r="R107">
-        <v>0</v>
+        <v>0.1624</v>
       </c>
       <c r="S107">
-        <v>0</v>
+        <v>0.1624</v>
       </c>
       <c r="T107">
-        <v>0</v>
+        <v>0.1624</v>
       </c>
       <c r="U107">
-        <v>0</v>
+        <v>0.1624</v>
       </c>
       <c r="V107">
-        <v>0</v>
+        <v>0.1624</v>
       </c>
       <c r="W107">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="X107">
         <v>0</v>
@@ -14905,19 +14911,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C108" t="s">
         <v>146</v>
       </c>
       <c r="D108" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="E108" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F108">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G108" s="2">
         <v>44745</v>
@@ -14926,13 +14932,13 @@
         <v>44745</v>
       </c>
       <c r="I108">
-        <v>0.094</v>
+        <v>0.135</v>
       </c>
       <c r="J108" s="3">
         <v>1</v>
       </c>
       <c r="K108">
-        <v>0.094</v>
+        <v>0.135</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -14968,7 +14974,7 @@
         <v>0</v>
       </c>
       <c r="W108">
-        <v>0.094</v>
+        <v>0.135</v>
       </c>
       <c r="X108">
         <v>0</v>
@@ -15039,25 +15045,25 @@
         <v>247</v>
       </c>
       <c r="E109" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G109" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="H109" s="2">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="I109">
-        <v>0.008</v>
+        <v>0.094</v>
       </c>
       <c r="J109" s="3">
         <v>1</v>
       </c>
       <c r="K109">
-        <v>0.008</v>
+        <v>0.094</v>
       </c>
       <c r="L109">
         <v>0</v>
@@ -15093,10 +15099,10 @@
         <v>0</v>
       </c>
       <c r="W109">
-        <v>0</v>
+        <v>0.094</v>
       </c>
       <c r="X109">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="Y109">
         <v>0</v>
@@ -15164,7 +15170,7 @@
         <v>248</v>
       </c>
       <c r="E110" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F110">
         <v>4</v>
@@ -15289,10 +15295,10 @@
         <v>249</v>
       </c>
       <c r="E111" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F111">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G111" s="2">
         <v>44746</v>
@@ -15301,13 +15307,13 @@
         <v>44746</v>
       </c>
       <c r="I111">
-        <v>0.08500000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="J111" s="3">
         <v>1</v>
       </c>
       <c r="K111">
-        <v>0.08500000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="L111">
         <v>0</v>
@@ -15346,7 +15352,7 @@
         <v>0</v>
       </c>
       <c r="X111">
-        <v>0.08500000000000001</v>
+        <v>0.008</v>
       </c>
       <c r="Y111">
         <v>0</v>
@@ -15414,25 +15420,25 @@
         <v>250</v>
       </c>
       <c r="E112" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F112">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="G112" s="2">
-        <v>44739</v>
+        <v>44746</v>
       </c>
       <c r="H112" s="2">
-        <v>44741</v>
+        <v>44746</v>
       </c>
       <c r="I112">
-        <v>0.5639999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J112" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K112">
-        <v>0.188</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L112">
         <v>0</v>
@@ -15450,13 +15456,13 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="S112">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="T112">
         <v>0</v>
@@ -15471,7 +15477,7 @@
         <v>0</v>
       </c>
       <c r="X112">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="Y112">
         <v>0</v>
@@ -15539,25 +15545,25 @@
         <v>251</v>
       </c>
       <c r="E113" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F113">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G113" s="2">
-        <v>44743</v>
+        <v>44739</v>
       </c>
       <c r="H113" s="2">
-        <v>44743</v>
+        <v>44741</v>
       </c>
       <c r="I113">
-        <v>0.094</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="J113" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K113">
-        <v>0.094</v>
+        <v>0.188</v>
       </c>
       <c r="L113">
         <v>0</v>
@@ -15575,19 +15581,19 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="R113">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="S113">
-        <v>0</v>
+        <v>0.188</v>
       </c>
       <c r="T113">
         <v>0</v>
       </c>
       <c r="U113">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -15664,25 +15670,25 @@
         <v>252</v>
       </c>
       <c r="E114" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F114">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G114" s="2">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="H114" s="2">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="I114">
-        <v>0.08500000000000001</v>
+        <v>0.094</v>
       </c>
       <c r="J114" s="3">
         <v>1</v>
       </c>
       <c r="K114">
-        <v>0.08500000000000001</v>
+        <v>0.094</v>
       </c>
       <c r="L114">
         <v>0</v>
@@ -15712,10 +15718,10 @@
         <v>0</v>
       </c>
       <c r="U114">
-        <v>0</v>
+        <v>0.094</v>
       </c>
       <c r="V114">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -15780,7 +15786,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C115" t="s">
         <v>153</v>
@@ -15792,22 +15798,22 @@
         <v>365</v>
       </c>
       <c r="F115">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="G115" s="2">
-        <v>44741</v>
+        <v>44744</v>
       </c>
       <c r="H115" s="2">
-        <v>44742</v>
+        <v>44744</v>
       </c>
       <c r="I115">
-        <v>0.339</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="J115" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115">
-        <v>0.1695</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -15831,16 +15837,16 @@
         <v>0</v>
       </c>
       <c r="S115">
-        <v>0.1695</v>
+        <v>0</v>
       </c>
       <c r="T115">
-        <v>0.1695</v>
+        <v>0</v>
       </c>
       <c r="U115">
         <v>0</v>
       </c>
       <c r="V115">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -15911,28 +15917,28 @@
         <v>154</v>
       </c>
       <c r="D116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E116" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F116">
         <v>180</v>
       </c>
       <c r="G116" s="2">
-        <v>44743</v>
+        <v>44741</v>
       </c>
       <c r="H116" s="2">
-        <v>44744</v>
+        <v>44742</v>
       </c>
       <c r="I116">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="J116" s="3">
         <v>2</v>
       </c>
       <c r="K116">
-        <v>0.1695</v>
+        <v>0.169</v>
       </c>
       <c r="L116">
         <v>0</v>
@@ -15956,16 +15962,16 @@
         <v>0</v>
       </c>
       <c r="S116">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="T116">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="U116">
-        <v>0.1695</v>
+        <v>0</v>
       </c>
       <c r="V116">
-        <v>0.1695</v>
+        <v>0</v>
       </c>
       <c r="W116">
         <v>0</v>
@@ -16039,25 +16045,25 @@
         <v>254</v>
       </c>
       <c r="E117" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F117">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="G117" s="2">
-        <v>44760</v>
+        <v>44743</v>
       </c>
       <c r="H117" s="2">
-        <v>44760</v>
+        <v>44744</v>
       </c>
       <c r="I117">
-        <v>0.068</v>
+        <v>0.338</v>
       </c>
       <c r="J117" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K117">
-        <v>0.068</v>
+        <v>0.169</v>
       </c>
       <c r="L117">
         <v>0</v>
@@ -16087,10 +16093,10 @@
         <v>0</v>
       </c>
       <c r="U117">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="V117">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="W117">
         <v>0</v>
@@ -16138,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="AL117">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="AM117">
         <v>0</v>
@@ -16164,25 +16170,25 @@
         <v>255</v>
       </c>
       <c r="E118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F118">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="G118" s="2">
-        <v>44757</v>
+        <v>44760</v>
       </c>
       <c r="H118" s="2">
-        <v>44758</v>
+        <v>44760</v>
       </c>
       <c r="I118">
-        <v>0.361</v>
+        <v>0.068</v>
       </c>
       <c r="J118" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K118">
-        <v>0.1805</v>
+        <v>0.068</v>
       </c>
       <c r="L118">
         <v>0</v>
@@ -16254,16 +16260,16 @@
         <v>0</v>
       </c>
       <c r="AI118">
-        <v>0.1805</v>
+        <v>0</v>
       </c>
       <c r="AJ118">
-        <v>0.1805</v>
+        <v>0</v>
       </c>
       <c r="AK118">
         <v>0</v>
       </c>
       <c r="AL118">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="AM118">
         <v>0</v>
@@ -16289,25 +16295,25 @@
         <v>256</v>
       </c>
       <c r="E119" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F119">
-        <v>500</v>
+        <v>192</v>
       </c>
       <c r="G119" s="2">
         <v>44757</v>
       </c>
       <c r="H119" s="2">
-        <v>44758.08333333334</v>
+        <v>44758</v>
       </c>
       <c r="I119">
-        <v>0.9409999999999999</v>
+        <v>0.361</v>
       </c>
       <c r="J119" s="3">
-        <v>2.083333333333333</v>
+        <v>2</v>
       </c>
       <c r="K119">
-        <v>0.4705</v>
+        <v>0.1805</v>
       </c>
       <c r="L119">
         <v>0</v>
@@ -16379,10 +16385,10 @@
         <v>0</v>
       </c>
       <c r="AI119">
-        <v>0.4705</v>
+        <v>0.1805</v>
       </c>
       <c r="AJ119">
-        <v>0.4705</v>
+        <v>0.1805</v>
       </c>
       <c r="AK119">
         <v>0</v>
@@ -16414,25 +16420,25 @@
         <v>257</v>
       </c>
       <c r="E120" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F120">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="G120" s="2">
-        <v>44758</v>
+        <v>44757</v>
       </c>
       <c r="H120" s="2">
-        <v>44758</v>
+        <v>44758.08333333334</v>
       </c>
       <c r="I120">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J120" s="3">
-        <v>1</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="K120">
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -16504,10 +16510,10 @@
         <v>0</v>
       </c>
       <c r="AI120">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AJ120">
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
       <c r="AK120">
         <v>0</v>
@@ -16539,25 +16545,25 @@
         <v>258</v>
       </c>
       <c r="E121" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F121">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="G121" s="2">
-        <v>44760</v>
+        <v>44758</v>
       </c>
       <c r="H121" s="2">
-        <v>44760</v>
+        <v>44758</v>
       </c>
       <c r="I121">
-        <v>0.017</v>
+        <v>0.09</v>
       </c>
       <c r="J121" s="3">
         <v>1</v>
       </c>
       <c r="K121">
-        <v>0.017</v>
+        <v>0.09</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -16632,13 +16638,13 @@
         <v>0</v>
       </c>
       <c r="AJ121">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AK121">
         <v>0</v>
       </c>
       <c r="AL121">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="AM121">
         <v>0</v>
@@ -16661,28 +16667,28 @@
         <v>160</v>
       </c>
       <c r="D122" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E122" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F122">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="G122" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="H122" s="2">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="I122">
-        <v>0.181</v>
+        <v>0.017</v>
       </c>
       <c r="J122" s="3">
         <v>1</v>
       </c>
       <c r="K122">
-        <v>0.181</v>
+        <v>0.017</v>
       </c>
       <c r="L122">
         <v>0</v>
@@ -16763,10 +16769,10 @@
         <v>0</v>
       </c>
       <c r="AL122">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="AM122">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="AN122">
         <v>0</v>
@@ -16789,10 +16795,10 @@
         <v>258</v>
       </c>
       <c r="E123" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F123">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="G123" s="2">
         <v>44761</v>
@@ -16801,13 +16807,13 @@
         <v>44761</v>
       </c>
       <c r="I123">
-        <v>0.045</v>
+        <v>0.181</v>
       </c>
       <c r="J123" s="3">
         <v>1</v>
       </c>
       <c r="K123">
-        <v>0.045</v>
+        <v>0.181</v>
       </c>
       <c r="L123">
         <v>0</v>
@@ -16891,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="AM123">
-        <v>0.045</v>
+        <v>0.181</v>
       </c>
       <c r="AN123">
         <v>0</v>
@@ -16905,7 +16911,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C124" t="s">
         <v>162</v>
@@ -16914,25 +16920,25 @@
         <v>259</v>
       </c>
       <c r="E124" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F124">
-        <v>480</v>
+        <v>24</v>
       </c>
       <c r="G124" s="2">
-        <v>44742</v>
+        <v>44761</v>
       </c>
       <c r="H124" s="2">
-        <v>44746</v>
+        <v>44761</v>
       </c>
       <c r="I124">
-        <v>0.903</v>
+        <v>0.045</v>
       </c>
       <c r="J124" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K124">
-        <v>0.1806</v>
+        <v>0.045</v>
       </c>
       <c r="L124">
         <v>0</v>
@@ -16959,19 +16965,19 @@
         <v>0</v>
       </c>
       <c r="T124">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="U124">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="V124">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="W124">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="X124">
-        <v>0.1806</v>
+        <v>0</v>
       </c>
       <c r="Y124">
         <v>0</v>
@@ -17016,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="AM124">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="AN124">
         <v>0</v>
@@ -17039,25 +17045,25 @@
         <v>260</v>
       </c>
       <c r="E125" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F125">
-        <v>160</v>
+        <v>480</v>
       </c>
       <c r="G125" s="2">
         <v>44742</v>
       </c>
       <c r="H125" s="2">
-        <v>44742.66666666666</v>
+        <v>44746</v>
       </c>
       <c r="I125">
-        <v>0.301</v>
+        <v>0.903</v>
       </c>
       <c r="J125" s="3">
-        <v>1.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="K125">
-        <v>0.301</v>
+        <v>0.1806</v>
       </c>
       <c r="L125">
         <v>0</v>
@@ -17084,19 +17090,19 @@
         <v>0</v>
       </c>
       <c r="T125">
-        <v>0.301</v>
+        <v>0.1806</v>
       </c>
       <c r="U125">
-        <v>0</v>
+        <v>0.1806</v>
       </c>
       <c r="V125">
-        <v>0</v>
+        <v>0.1806</v>
       </c>
       <c r="W125">
-        <v>0</v>
+        <v>0.1806</v>
       </c>
       <c r="X125">
-        <v>0</v>
+        <v>0.1806</v>
       </c>
       <c r="Y125">
         <v>0</v>
@@ -17164,25 +17170,25 @@
         <v>261</v>
       </c>
       <c r="E126" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F126">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="G126" s="2">
-        <v>44757</v>
+        <v>44742</v>
       </c>
       <c r="H126" s="2">
-        <v>44758</v>
+        <v>44742.66666666666</v>
       </c>
       <c r="I126">
-        <v>0.181</v>
+        <v>0.301</v>
       </c>
       <c r="J126" s="3">
-        <v>2</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="K126">
-        <v>0.0905</v>
+        <v>0.301</v>
       </c>
       <c r="L126">
         <v>0</v>
@@ -17209,7 +17215,7 @@
         <v>0</v>
       </c>
       <c r="T126">
-        <v>0</v>
+        <v>0.301</v>
       </c>
       <c r="U126">
         <v>0</v>
@@ -17254,10 +17260,10 @@
         <v>0</v>
       </c>
       <c r="AI126">
-        <v>0.0905</v>
+        <v>0</v>
       </c>
       <c r="AJ126">
-        <v>0.0905</v>
+        <v>0</v>
       </c>
       <c r="AK126">
         <v>0</v>
@@ -17286,28 +17292,28 @@
         <v>165</v>
       </c>
       <c r="D127" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E127" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F127">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G127" s="2">
-        <v>44759</v>
+        <v>44757</v>
       </c>
       <c r="H127" s="2">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="I127">
-        <v>0.166</v>
+        <v>0.181</v>
       </c>
       <c r="J127" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K127">
-        <v>0.166</v>
+        <v>0.0905</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -17379,13 +17385,13 @@
         <v>0</v>
       </c>
       <c r="AI127">
-        <v>0</v>
+        <v>0.0905</v>
       </c>
       <c r="AJ127">
-        <v>0</v>
+        <v>0.0905</v>
       </c>
       <c r="AK127">
-        <v>0.166</v>
+        <v>0</v>
       </c>
       <c r="AL127">
         <v>0</v>
@@ -17405,34 +17411,34 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C128" t="s">
         <v>166</v>
       </c>
       <c r="D128" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E128" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F128">
-        <v>720</v>
+        <v>88</v>
       </c>
       <c r="G128" s="2">
-        <v>44743</v>
+        <v>44759</v>
       </c>
       <c r="H128" s="2">
-        <v>44747</v>
+        <v>44759</v>
       </c>
       <c r="I128">
-        <v>1.354</v>
+        <v>0.165</v>
       </c>
       <c r="J128" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K128">
-        <v>0.2708</v>
+        <v>0.165</v>
       </c>
       <c r="L128">
         <v>0</v>
@@ -17462,19 +17468,19 @@
         <v>0</v>
       </c>
       <c r="U128">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="V128">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="W128">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="X128">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="Y128">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="Z128">
         <v>0</v>
@@ -17510,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="AK128">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="AL128">
         <v>0</v>
@@ -17539,16 +17545,16 @@
         <v>263</v>
       </c>
       <c r="E129" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F129">
         <v>720</v>
       </c>
       <c r="G129" s="2">
-        <v>44748</v>
+        <v>44743</v>
       </c>
       <c r="H129" s="2">
-        <v>44752</v>
+        <v>44747</v>
       </c>
       <c r="I129">
         <v>1.354</v>
@@ -17587,34 +17593,34 @@
         <v>0</v>
       </c>
       <c r="U129">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="V129">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="W129">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="X129">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="Z129">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="AB129">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="AD129">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="AE129">
         <v>0</v>
@@ -17664,16 +17670,16 @@
         <v>264</v>
       </c>
       <c r="E130" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F130">
         <v>720</v>
       </c>
       <c r="G130" s="2">
-        <v>44753</v>
+        <v>44748</v>
       </c>
       <c r="H130" s="2">
-        <v>44757</v>
+        <v>44752</v>
       </c>
       <c r="I130">
         <v>1.354</v>
@@ -17727,34 +17733,34 @@
         <v>0</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="AC130">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="AD130">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="AE130">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="AF130">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="AG130">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="AH130">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="AI130">
-        <v>0.2708</v>
+        <v>0</v>
       </c>
       <c r="AJ130">
         <v>0</v>
@@ -17780,34 +17786,34 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1878</v>
+        <v>871</v>
       </c>
       <c r="C131" t="s">
         <v>169</v>
       </c>
       <c r="D131" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="E131" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F131">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="G131" s="2">
-        <v>44738</v>
+        <v>44753</v>
       </c>
       <c r="H131" s="2">
-        <v>44747</v>
+        <v>44757</v>
       </c>
       <c r="I131">
-        <v>0.752</v>
+        <v>1.354</v>
       </c>
       <c r="J131" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K131">
-        <v>0.0752</v>
+        <v>0.2708</v>
       </c>
       <c r="L131">
         <v>0</v>
@@ -17822,34 +17828,34 @@
         <v>0</v>
       </c>
       <c r="P131">
-        <v>0.0752</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>0.0752</v>
+        <v>0</v>
       </c>
       <c r="R131">
-        <v>0.0752</v>
+        <v>0</v>
       </c>
       <c r="S131">
-        <v>0.0752</v>
+        <v>0</v>
       </c>
       <c r="T131">
-        <v>0.0752</v>
+        <v>0</v>
       </c>
       <c r="U131">
-        <v>0.0752</v>
+        <v>0</v>
       </c>
       <c r="V131">
-        <v>0.0752</v>
+        <v>0</v>
       </c>
       <c r="W131">
-        <v>0.0752</v>
+        <v>0</v>
       </c>
       <c r="X131">
-        <v>0.0752</v>
+        <v>0</v>
       </c>
       <c r="Y131">
-        <v>0.0752</v>
+        <v>0</v>
       </c>
       <c r="Z131">
         <v>0</v>
@@ -17867,19 +17873,19 @@
         <v>0</v>
       </c>
       <c r="AE131">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="AF131">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="AG131">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="AH131">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="AI131">
-        <v>0</v>
+        <v>0.2708</v>
       </c>
       <c r="AJ131">
         <v>0</v>
@@ -17905,25 +17911,25 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1879</v>
+        <v>1892</v>
       </c>
       <c r="C132" t="s">
         <v>170</v>
       </c>
       <c r="D132" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E132" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F132">
         <v>400</v>
       </c>
       <c r="G132" s="2">
-        <v>44741</v>
+        <v>44738</v>
       </c>
       <c r="H132" s="2">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="I132">
         <v>0.752</v>
@@ -17947,13 +17953,13 @@
         <v>0</v>
       </c>
       <c r="P132">
-        <v>0</v>
+        <v>0.0752</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.0752</v>
       </c>
       <c r="R132">
-        <v>0</v>
+        <v>0.0752</v>
       </c>
       <c r="S132">
         <v>0.0752</v>
@@ -17977,51 +17983,176 @@
         <v>0.0752</v>
       </c>
       <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:41">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>1893</v>
+      </c>
+      <c r="C133" t="s">
+        <v>171</v>
+      </c>
+      <c r="D133" t="s">
+        <v>241</v>
+      </c>
+      <c r="E133" t="s">
+        <v>383</v>
+      </c>
+      <c r="F133">
+        <v>400</v>
+      </c>
+      <c r="G133" s="2">
+        <v>44741</v>
+      </c>
+      <c r="H133" s="2">
+        <v>44750</v>
+      </c>
+      <c r="I133">
+        <v>0.752</v>
+      </c>
+      <c r="J133" s="3">
+        <v>10</v>
+      </c>
+      <c r="K133">
         <v>0.0752</v>
       </c>
-      <c r="AA132">
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
         <v>0.0752</v>
       </c>
-      <c r="AB132">
+      <c r="T133">
         <v>0.0752</v>
       </c>
-      <c r="AC132">
-        <v>0</v>
-      </c>
-      <c r="AD132">
-        <v>0</v>
-      </c>
-      <c r="AE132">
-        <v>0</v>
-      </c>
-      <c r="AF132">
-        <v>0</v>
-      </c>
-      <c r="AG132">
-        <v>0</v>
-      </c>
-      <c r="AH132">
-        <v>0</v>
-      </c>
-      <c r="AI132">
-        <v>0</v>
-      </c>
-      <c r="AJ132">
-        <v>0</v>
-      </c>
-      <c r="AK132">
-        <v>0</v>
-      </c>
-      <c r="AL132">
-        <v>0</v>
-      </c>
-      <c r="AM132">
-        <v>0</v>
-      </c>
-      <c r="AN132">
-        <v>0</v>
-      </c>
-      <c r="AO132">
+      <c r="U133">
+        <v>0.0752</v>
+      </c>
+      <c r="V133">
+        <v>0.0752</v>
+      </c>
+      <c r="W133">
+        <v>0.0752</v>
+      </c>
+      <c r="X133">
+        <v>0.0752</v>
+      </c>
+      <c r="Y133">
+        <v>0.0752</v>
+      </c>
+      <c r="Z133">
+        <v>0.0752</v>
+      </c>
+      <c r="AA133">
+        <v>0.0752</v>
+      </c>
+      <c r="AB133">
+        <v>0.0752</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>0</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>0</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
         <v>0</v>
       </c>
     </row>
